--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2255733707759475</v>
+        <v>0.2255733707759759</v>
       </c>
       <c r="D2">
-        <v>0.5684434365353042</v>
+        <v>0.5684434365352899</v>
       </c>
       <c r="E2">
-        <v>4.04767784075581</v>
+        <v>4.047677840755824</v>
       </c>
       <c r="F2">
-        <v>6.772308598988474</v>
+        <v>6.772308598988758</v>
       </c>
       <c r="G2">
-        <v>6.194700025973006</v>
+        <v>6.194700025973262</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.610961044332171</v>
+        <v>2.610961044332214</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>45.12380293425662</v>
+        <v>45.1238029342573</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1720431047032065</v>
+        <v>0.1720431047031923</v>
       </c>
       <c r="D3">
-        <v>0.4049315872017871</v>
+        <v>0.4049315872018013</v>
       </c>
       <c r="E3">
-        <v>3.074688380123561</v>
+        <v>3.074688380123575</v>
       </c>
       <c r="F3">
         <v>4.104518489985168</v>
       </c>
       <c r="G3">
-        <v>3.823209036503059</v>
+        <v>3.82320903650303</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.905850781354161</v>
+        <v>1.905850781354175</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1480215631267185</v>
+        <v>0.1480215631269601</v>
       </c>
       <c r="D4">
-        <v>0.3382054635109171</v>
+        <v>0.3382054635108318</v>
       </c>
       <c r="E4">
-        <v>2.653654760121881</v>
+        <v>2.653654760121839</v>
       </c>
       <c r="F4">
-        <v>3.166113449508188</v>
+        <v>3.166113449508174</v>
       </c>
       <c r="G4">
-        <v>2.977857127906603</v>
+        <v>2.977857127906574</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.618940185837459</v>
+        <v>1.618940185837488</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>29.82783930402741</v>
+        <v>29.82783930402752</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1392057874551398</v>
+        <v>0.139205787455154</v>
       </c>
       <c r="D5">
-        <v>0.31460162421061</v>
+        <v>0.3146016242105105</v>
       </c>
       <c r="E5">
-        <v>2.500157261547301</v>
+        <v>2.500157261547315</v>
       </c>
       <c r="F5">
-        <v>2.856403646805703</v>
+        <v>2.856403646805688</v>
       </c>
       <c r="G5">
         <v>2.696947444505895</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.516772545534437</v>
+        <v>1.516772545534451</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.11912387071771</v>
+        <v>28.11912387071789</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.137785798446842</v>
+        <v>0.1377857984468278</v>
       </c>
       <c r="D6">
-        <v>0.3108421513510535</v>
+        <v>0.3108421513510677</v>
       </c>
       <c r="E6">
-        <v>2.475462508031796</v>
+        <v>2.475462508031825</v>
       </c>
       <c r="F6">
-        <v>2.808193734427206</v>
+        <v>2.808193734427093</v>
       </c>
       <c r="G6">
-        <v>2.653117670477982</v>
+        <v>2.653117670477869</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.500451841115051</v>
+        <v>1.500451841115023</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>27.84392246470173</v>
+        <v>27.84392246470156</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.147899466182011</v>
+        <v>0.1478994661815989</v>
       </c>
       <c r="D7">
         <v>0.3378754155739756</v>
@@ -614,16 +614,16 @@
         <v>2.651526238191479</v>
       </c>
       <c r="F7">
-        <v>3.161700426644884</v>
+        <v>3.161700426644842</v>
       </c>
       <c r="G7">
-        <v>2.97386205886319</v>
+        <v>2.973862058863148</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.617514836959046</v>
+        <v>1.617514836959003</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>29.80416793126892</v>
+        <v>29.80416793126869</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D8">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E8">
         <v>3.641943134907947</v>
       </c>
       <c r="F8">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G8">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D9">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E9">
         <v>3.641943134907947</v>
       </c>
       <c r="F9">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G9">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D10">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E10">
         <v>3.641943134907947</v>
       </c>
       <c r="F10">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G10">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D11">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E11">
         <v>3.641943134907947</v>
       </c>
       <c r="F11">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G11">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D12">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E12">
         <v>3.641943134907947</v>
       </c>
       <c r="F12">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G12">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D13">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E13">
         <v>3.641943134907947</v>
       </c>
       <c r="F13">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G13">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D14">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E14">
         <v>3.641943134907947</v>
       </c>
       <c r="F14">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G14">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D15">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E15">
         <v>3.641943134907947</v>
       </c>
       <c r="F15">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G15">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D16">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E16">
         <v>3.641943134907947</v>
       </c>
       <c r="F16">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G16">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D17">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E17">
         <v>3.641943134907947</v>
       </c>
       <c r="F17">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G17">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D18">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E18">
         <v>3.641943134907947</v>
       </c>
       <c r="F18">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G18">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D19">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E19">
         <v>3.641943134907947</v>
       </c>
       <c r="F19">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G19">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D20">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E20">
         <v>3.641943134907947</v>
       </c>
       <c r="F20">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G20">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D21">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E21">
         <v>3.641943134907947</v>
       </c>
       <c r="F21">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G21">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D22">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E22">
         <v>3.641943134907947</v>
       </c>
       <c r="F22">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G22">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D23">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E23">
         <v>3.641943134907947</v>
       </c>
       <c r="F23">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G23">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D24">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E24">
         <v>3.641943134907947</v>
       </c>
       <c r="F24">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G24">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.203718672558864</v>
+        <v>0.2037186725588498</v>
       </c>
       <c r="D25">
-        <v>0.4989118801156422</v>
+        <v>0.4989118801154291</v>
       </c>
       <c r="E25">
         <v>3.641943134907947</v>
       </c>
       <c r="F25">
-        <v>5.575299653443949</v>
+        <v>5.575299653443807</v>
       </c>
       <c r="G25">
-        <v>5.135305540733228</v>
+        <v>5.135305540733114</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.309257058090267</v>
+        <v>2.309257058090225</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>40.72545400877203</v>
+        <v>40.72545400877169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2255733707759759</v>
+        <v>0.2255733707759475</v>
       </c>
       <c r="D2">
-        <v>0.5684434365352899</v>
+        <v>0.5684434365353042</v>
       </c>
       <c r="E2">
-        <v>4.047677840755824</v>
+        <v>4.04767784075581</v>
       </c>
       <c r="F2">
-        <v>6.772308598988758</v>
+        <v>6.772308598988474</v>
       </c>
       <c r="G2">
-        <v>6.194700025973262</v>
+        <v>6.194700025973006</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.610961044332214</v>
+        <v>2.610961044332171</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>45.1238029342573</v>
+        <v>45.12380293425662</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1720431047031923</v>
+        <v>0.1720431047032065</v>
       </c>
       <c r="D3">
-        <v>0.4049315872018013</v>
+        <v>0.4049315872017871</v>
       </c>
       <c r="E3">
-        <v>3.074688380123575</v>
+        <v>3.074688380123561</v>
       </c>
       <c r="F3">
         <v>4.104518489985168</v>
       </c>
       <c r="G3">
-        <v>3.82320903650303</v>
+        <v>3.823209036503059</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.905850781354175</v>
+        <v>1.905850781354161</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1480215631269601</v>
+        <v>0.1480215631267185</v>
       </c>
       <c r="D4">
-        <v>0.3382054635108318</v>
+        <v>0.3382054635109171</v>
       </c>
       <c r="E4">
-        <v>2.653654760121839</v>
+        <v>2.653654760121881</v>
       </c>
       <c r="F4">
-        <v>3.166113449508174</v>
+        <v>3.166113449508188</v>
       </c>
       <c r="G4">
-        <v>2.977857127906574</v>
+        <v>2.977857127906603</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.618940185837488</v>
+        <v>1.618940185837459</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>29.82783930402752</v>
+        <v>29.82783930402741</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.139205787455154</v>
+        <v>0.1392057874551398</v>
       </c>
       <c r="D5">
-        <v>0.3146016242105105</v>
+        <v>0.31460162421061</v>
       </c>
       <c r="E5">
-        <v>2.500157261547315</v>
+        <v>2.500157261547301</v>
       </c>
       <c r="F5">
-        <v>2.856403646805688</v>
+        <v>2.856403646805703</v>
       </c>
       <c r="G5">
         <v>2.696947444505895</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.516772545534451</v>
+        <v>1.516772545534437</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.11912387071789</v>
+        <v>28.11912387071771</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1377857984468278</v>
+        <v>0.137785798446842</v>
       </c>
       <c r="D6">
-        <v>0.3108421513510677</v>
+        <v>0.3108421513510535</v>
       </c>
       <c r="E6">
-        <v>2.475462508031825</v>
+        <v>2.475462508031796</v>
       </c>
       <c r="F6">
-        <v>2.808193734427093</v>
+        <v>2.808193734427206</v>
       </c>
       <c r="G6">
-        <v>2.653117670477869</v>
+        <v>2.653117670477982</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.500451841115023</v>
+        <v>1.500451841115051</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>27.84392246470156</v>
+        <v>27.84392246470173</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1478994661815989</v>
+        <v>0.147899466182011</v>
       </c>
       <c r="D7">
         <v>0.3378754155739756</v>
@@ -614,16 +614,16 @@
         <v>2.651526238191479</v>
       </c>
       <c r="F7">
-        <v>3.161700426644842</v>
+        <v>3.161700426644884</v>
       </c>
       <c r="G7">
-        <v>2.973862058863148</v>
+        <v>2.97386205886319</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.617514836959003</v>
+        <v>1.617514836959046</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>29.80416793126869</v>
+        <v>29.80416793126892</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D8">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E8">
         <v>3.641943134907947</v>
       </c>
       <c r="F8">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G8">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D9">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E9">
         <v>3.641943134907947</v>
       </c>
       <c r="F9">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G9">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D10">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E10">
         <v>3.641943134907947</v>
       </c>
       <c r="F10">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G10">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D11">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E11">
         <v>3.641943134907947</v>
       </c>
       <c r="F11">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G11">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D12">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E12">
         <v>3.641943134907947</v>
       </c>
       <c r="F12">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G12">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D13">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E13">
         <v>3.641943134907947</v>
       </c>
       <c r="F13">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G13">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D14">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E14">
         <v>3.641943134907947</v>
       </c>
       <c r="F14">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G14">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D15">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E15">
         <v>3.641943134907947</v>
       </c>
       <c r="F15">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G15">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D16">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E16">
         <v>3.641943134907947</v>
       </c>
       <c r="F16">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G16">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D17">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E17">
         <v>3.641943134907947</v>
       </c>
       <c r="F17">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G17">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D18">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E18">
         <v>3.641943134907947</v>
       </c>
       <c r="F18">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G18">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D19">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E19">
         <v>3.641943134907947</v>
       </c>
       <c r="F19">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G19">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D20">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E20">
         <v>3.641943134907947</v>
       </c>
       <c r="F20">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G20">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D21">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E21">
         <v>3.641943134907947</v>
       </c>
       <c r="F21">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G21">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D22">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E22">
         <v>3.641943134907947</v>
       </c>
       <c r="F22">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G22">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D23">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E23">
         <v>3.641943134907947</v>
       </c>
       <c r="F23">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G23">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D24">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E24">
         <v>3.641943134907947</v>
       </c>
       <c r="F24">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G24">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2037186725588498</v>
+        <v>0.203718672558864</v>
       </c>
       <c r="D25">
-        <v>0.4989118801154291</v>
+        <v>0.4989118801156422</v>
       </c>
       <c r="E25">
         <v>3.641943134907947</v>
       </c>
       <c r="F25">
-        <v>5.575299653443807</v>
+        <v>5.575299653443949</v>
       </c>
       <c r="G25">
-        <v>5.135305540733114</v>
+        <v>5.135305540733228</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.309257058090225</v>
+        <v>2.309257058090267</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>40.72545400877169</v>
+        <v>40.72545400877203</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2255733707759475</v>
+        <v>0.2252851389807944</v>
       </c>
       <c r="D2">
-        <v>0.5684434365353042</v>
+        <v>0.5660270977862467</v>
       </c>
       <c r="E2">
-        <v>4.04767784075581</v>
+        <v>4.043850777986833</v>
       </c>
       <c r="F2">
-        <v>6.772308598988474</v>
+        <v>6.742704206228666</v>
       </c>
       <c r="G2">
-        <v>6.194700025973006</v>
+        <v>2.148780909774217</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.017326910935196</v>
       </c>
       <c r="I2">
-        <v>2.610961044332171</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.608257849748725</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>45.12380293425662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>45.07928531815804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1720431047032065</v>
+        <v>0.1719380915648259</v>
       </c>
       <c r="D3">
-        <v>0.4049315872017871</v>
+        <v>0.403636443804217</v>
       </c>
       <c r="E3">
-        <v>3.074688380123561</v>
+        <v>3.073504133384318</v>
       </c>
       <c r="F3">
-        <v>4.104518489985168</v>
+        <v>4.091899642705656</v>
       </c>
       <c r="G3">
-        <v>3.823209036503059</v>
+        <v>1.336945364864235</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.475126604917818</v>
       </c>
       <c r="I3">
-        <v>1.905850781354161</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.905346961887233</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>34.49552377087537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>34.48230972834602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1480215631267185</v>
+        <v>0.1479541975310923</v>
       </c>
       <c r="D4">
-        <v>0.3382054635109171</v>
+        <v>0.3372113624587456</v>
       </c>
       <c r="E4">
-        <v>2.653654760121881</v>
+        <v>2.652877506492999</v>
       </c>
       <c r="F4">
-        <v>3.166113449508188</v>
+        <v>3.157198046688592</v>
       </c>
       <c r="G4">
-        <v>2.977857127906603</v>
+        <v>1.044189189950899</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.926743259345685</v>
       </c>
       <c r="I4">
-        <v>1.618940185837459</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.618739286554941</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>29.82783930402741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>29.81991499764496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1392057874551398</v>
+        <v>0.139149046801478</v>
       </c>
       <c r="D5">
-        <v>0.31460162421061</v>
+        <v>0.3137023808682073</v>
       </c>
       <c r="E5">
-        <v>2.500157261547301</v>
+        <v>2.499486035249902</v>
       </c>
       <c r="F5">
-        <v>2.856403646805703</v>
+        <v>2.84857198215245</v>
       </c>
       <c r="G5">
-        <v>2.696947444505895</v>
+        <v>0.9463656284711703</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.744935544616993</v>
       </c>
       <c r="I5">
-        <v>1.516772545534437</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.516643543670114</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.11912387071771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>28.11259899785938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.137785798446842</v>
+        <v>0.1377306399438538</v>
       </c>
       <c r="D6">
-        <v>0.3108421513510535</v>
+        <v>0.3099575354127069</v>
       </c>
       <c r="E6">
-        <v>2.475462508031796</v>
+        <v>2.474806770397592</v>
       </c>
       <c r="F6">
-        <v>2.808193734427206</v>
+        <v>2.800525507359239</v>
       </c>
       <c r="G6">
-        <v>2.653117670477982</v>
+        <v>0.9310731318859666</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.716593173220261</v>
       </c>
       <c r="I6">
-        <v>1.500451841115051</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.500332957047192</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>27.84392246470173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>27.83760218237848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.147899466182011</v>
+        <v>0.1478322577350326</v>
       </c>
       <c r="D7">
-        <v>0.3378754155739756</v>
+        <v>0.3368826782607641</v>
       </c>
       <c r="E7">
-        <v>2.651526238191479</v>
+        <v>2.650750579382816</v>
       </c>
       <c r="F7">
-        <v>3.161700426644884</v>
+        <v>3.152800893935165</v>
       </c>
       <c r="G7">
-        <v>2.97386205886319</v>
+        <v>1.042800100308455</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.924155833027029</v>
       </c>
       <c r="I7">
-        <v>1.617514836959046</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.617315049210205</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>29.80416793126892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>29.79626464012586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D8">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E8">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F8">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G8">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I8">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D9">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E9">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F9">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G9">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I9">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D10">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E10">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F10">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G10">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I10">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D11">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E11">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F11">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G11">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I11">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D12">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E12">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F12">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G12">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I12">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D13">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E13">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F13">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G13">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I13">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D14">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E14">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F14">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G14">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I14">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D15">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E15">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F15">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G15">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I15">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D16">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E16">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F16">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G16">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I16">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D17">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E17">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F17">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G17">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I17">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D18">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E18">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F18">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G18">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I18">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D19">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E19">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F19">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G19">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I19">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D20">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E20">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F20">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G20">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I20">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D21">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E21">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F21">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G21">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I21">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D22">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E22">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F22">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G22">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I22">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D23">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E23">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F23">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G23">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I23">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D24">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E24">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F24">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G24">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I24">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>40.72545400877203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>40.69927082183204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.203718672558864</v>
+        <v>0.2035320417471382</v>
       </c>
       <c r="D25">
-        <v>0.4989118801156422</v>
+        <v>0.4970713280523995</v>
       </c>
       <c r="E25">
-        <v>3.641943134907947</v>
+        <v>3.63970556488394</v>
       </c>
       <c r="F25">
-        <v>5.575299653443949</v>
+        <v>5.5550076086883</v>
       </c>
       <c r="G25">
-        <v>5.135305540733228</v>
+        <v>1.787664173869942</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.328332079499546</v>
       </c>
       <c r="I25">
-        <v>2.309257058090267</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.307896113347297</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>40.72545400877203</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>40.69927082183204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2252851389807944</v>
+        <v>0.1907521886298866</v>
       </c>
       <c r="D2">
-        <v>0.5660270977862467</v>
+        <v>0.3700076290468814</v>
       </c>
       <c r="E2">
-        <v>4.043850777986833</v>
+        <v>0.03301300819948771</v>
       </c>
       <c r="F2">
-        <v>6.742704206228666</v>
+        <v>14.98861602673975</v>
       </c>
       <c r="G2">
-        <v>2.148780909774217</v>
+        <v>0.0006901613160086484</v>
       </c>
       <c r="H2">
-        <v>4.017326910935196</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.608257849748725</v>
+        <v>0.4423812931907065</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01959222765255308</v>
       </c>
       <c r="M2">
-        <v>45.07928531815804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>12.49803678665077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1719380915648259</v>
+        <v>0.1711556838406665</v>
       </c>
       <c r="D3">
-        <v>0.403636443804217</v>
+        <v>0.3025953175314129</v>
       </c>
       <c r="E3">
-        <v>3.073504133384318</v>
+        <v>0.03256141170901294</v>
       </c>
       <c r="F3">
-        <v>4.091899642705656</v>
+        <v>12.74272307709401</v>
       </c>
       <c r="G3">
-        <v>1.336945364864235</v>
+        <v>0.0007316937456118958</v>
       </c>
       <c r="H3">
-        <v>2.475126604917818</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.905346961887233</v>
+        <v>0.3862251586399026</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.02016067830087209</v>
       </c>
       <c r="M3">
-        <v>34.48230972834602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>10.59391071023583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1479541975310923</v>
+        <v>0.1608215956725161</v>
       </c>
       <c r="D4">
-        <v>0.3372113624587456</v>
+        <v>0.2659732419414382</v>
       </c>
       <c r="E4">
-        <v>2.652877506492999</v>
+        <v>0.03241421987523374</v>
       </c>
       <c r="F4">
-        <v>3.157198046688592</v>
+        <v>11.53203597451551</v>
       </c>
       <c r="G4">
-        <v>1.044189189950899</v>
+        <v>0.0007559156832912164</v>
       </c>
       <c r="H4">
-        <v>1.926743259345685</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.618739286554941</v>
+        <v>0.3563267156064569</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02050969035952832</v>
       </c>
       <c r="M4">
-        <v>29.81991499764496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>9.566802475993228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.139149046801478</v>
+        <v>0.1569251982769657</v>
       </c>
       <c r="D5">
-        <v>0.3137023808682073</v>
+        <v>0.2518963457411587</v>
       </c>
       <c r="E5">
-        <v>2.499486035249902</v>
+        <v>0.03238049515472241</v>
       </c>
       <c r="F5">
-        <v>2.84857198215245</v>
+        <v>11.06915991989865</v>
       </c>
       <c r="G5">
-        <v>0.9463656284711703</v>
+        <v>0.0007656001553836303</v>
       </c>
       <c r="H5">
-        <v>1.744935544616993</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.516643543670114</v>
+        <v>0.3449803720939855</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02065268983653379</v>
       </c>
       <c r="M5">
-        <v>28.11259899785938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>9.173944706915762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1377306399438538</v>
+        <v>0.1562947676873279</v>
       </c>
       <c r="D6">
-        <v>0.3099575354127069</v>
+        <v>0.2496023868529278</v>
       </c>
       <c r="E6">
-        <v>2.474806770397592</v>
+        <v>0.03237633946910812</v>
       </c>
       <c r="F6">
-        <v>2.800525507359239</v>
+        <v>10.99388316778646</v>
       </c>
       <c r="G6">
-        <v>0.9310731318859666</v>
+        <v>0.0007671999667094535</v>
       </c>
       <c r="H6">
-        <v>1.716593173220261</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.500332957047192</v>
+        <v>0.3431400497525061</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.02067649961240559</v>
       </c>
       <c r="M6">
-        <v>27.83760218237848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>9.110044632877106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1478322577350326</v>
+        <v>0.160767888096558</v>
       </c>
       <c r="D7">
-        <v>0.3368826782607641</v>
+        <v>0.2657803271759178</v>
       </c>
       <c r="E7">
-        <v>2.650750579382816</v>
+        <v>0.03241366539473312</v>
       </c>
       <c r="F7">
-        <v>3.152800893935165</v>
+        <v>11.52568215698653</v>
       </c>
       <c r="G7">
-        <v>1.042800100308455</v>
+        <v>0.0007560469062623644</v>
       </c>
       <c r="H7">
-        <v>1.924155833027029</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.617315049210205</v>
+        <v>0.3561706263433848</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.02051161492251019</v>
       </c>
       <c r="M7">
-        <v>29.79626464012586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>9.561410487813589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2035320417471382</v>
+        <v>0.1835573635191423</v>
       </c>
       <c r="D8">
-        <v>0.4970713280523995</v>
+        <v>0.3455043047415671</v>
       </c>
       <c r="E8">
-        <v>3.63970556488394</v>
+        <v>0.03282539502854398</v>
       </c>
       <c r="F8">
-        <v>5.5550076086883</v>
+        <v>14.17027476582911</v>
       </c>
       <c r="G8">
-        <v>1.787664173869942</v>
+        <v>0.0007048505226529507</v>
       </c>
       <c r="H8">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.307896113347297</v>
+        <v>0.4218276221083386</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.01978880038986475</v>
       </c>
       <c r="M8">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>11.8043707921376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D9">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E9">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F9">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G9">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H9">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M9">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D10">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E10">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F10">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G10">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H10">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M10">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D11">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E11">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F11">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G11">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H11">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M11">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D12">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E12">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F12">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G12">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H12">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M12">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D13">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E13">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F13">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G13">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H13">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M13">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D14">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E14">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F14">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G14">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H14">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M14">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D15">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E15">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F15">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G15">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H15">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M15">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D16">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E16">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F16">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G16">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H16">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M16">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D17">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E17">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F17">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G17">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H17">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M17">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D18">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E18">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F18">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G18">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H18">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M18">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D19">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E19">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F19">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G19">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H19">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M19">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D20">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E20">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F20">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G20">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H20">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M20">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D21">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E21">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F21">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G21">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H21">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M21">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D22">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E22">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F22">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G22">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H22">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M22">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D23">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E23">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F23">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G23">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H23">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M23">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D24">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E24">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F24">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G24">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H24">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M24">
-        <v>40.69927082183204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>18.33418695505964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2035320417471382</v>
+        <v>0.252899330513074</v>
       </c>
       <c r="D25">
-        <v>0.4970713280523995</v>
+        <v>0.5754050291446049</v>
       </c>
       <c r="E25">
-        <v>3.63970556488394</v>
+        <v>0.03530017516040651</v>
       </c>
       <c r="F25">
-        <v>5.5550076086883</v>
+        <v>21.87714823111736</v>
       </c>
       <c r="G25">
-        <v>1.787664173869942</v>
+        <v>0.0005807318769157628</v>
       </c>
       <c r="H25">
-        <v>3.328332079499546</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.307896113347297</v>
+        <v>0.6185050995583197</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.01830662848562081</v>
       </c>
       <c r="M25">
-        <v>40.69927082183204</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>18.33418695505964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1907521886298866</v>
+        <v>0.1432544306008197</v>
       </c>
       <c r="D2">
-        <v>0.3700076290468814</v>
+        <v>0.1005612192672629</v>
       </c>
       <c r="E2">
-        <v>0.03301300819948771</v>
+        <v>0.141898707186197</v>
       </c>
       <c r="F2">
-        <v>14.98861602673975</v>
+        <v>1.562107101338427</v>
       </c>
       <c r="G2">
-        <v>0.0006901613160086484</v>
+        <v>1.233928320162732</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7361957089439386</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4423812931907065</v>
+        <v>0.2106450777601339</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.575866471882421</v>
       </c>
       <c r="L2">
-        <v>0.01959222765255308</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6698456516985765</v>
       </c>
       <c r="O2">
-        <v>12.49803678665077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1711556838406665</v>
+        <v>0.1235253777363283</v>
       </c>
       <c r="D3">
-        <v>0.3025953175314129</v>
+        <v>0.08944118898504172</v>
       </c>
       <c r="E3">
-        <v>0.03256141170901294</v>
+        <v>0.1262559704001589</v>
       </c>
       <c r="F3">
-        <v>12.74272307709401</v>
+        <v>1.431308680312583</v>
       </c>
       <c r="G3">
-        <v>0.0007316937456118958</v>
+        <v>1.121121840933867</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6933036414962999</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3862251586399026</v>
+        <v>0.1873132478553856</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.962658825542348</v>
       </c>
       <c r="L3">
-        <v>0.02016067830087209</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7151184442946921</v>
       </c>
       <c r="O3">
-        <v>10.59391071023583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1608215956725161</v>
+        <v>0.1115852663396737</v>
       </c>
       <c r="D4">
-        <v>0.2659732419414382</v>
+        <v>0.0826788299959702</v>
       </c>
       <c r="E4">
-        <v>0.03241421987523374</v>
+        <v>0.1168432483719855</v>
       </c>
       <c r="F4">
-        <v>11.53203597451551</v>
+        <v>1.354856192353907</v>
       </c>
       <c r="G4">
-        <v>0.0007559156832912164</v>
+        <v>1.055318931563903</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.668850120423798</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3563267156064569</v>
+        <v>0.1733666954574815</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.589884687090887</v>
       </c>
       <c r="L4">
-        <v>0.02050969035952832</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7442445518463003</v>
       </c>
       <c r="O4">
-        <v>9.566802475993228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1569251982769657</v>
+        <v>0.1067570459148612</v>
       </c>
       <c r="D5">
-        <v>0.2518963457411587</v>
+        <v>0.07993775635378597</v>
       </c>
       <c r="E5">
-        <v>0.03238049515472241</v>
+        <v>0.113050878640216</v>
       </c>
       <c r="F5">
-        <v>11.06915991989865</v>
+        <v>1.32458739060931</v>
       </c>
       <c r="G5">
-        <v>0.0007656001553836303</v>
+        <v>1.029294873236836</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6593217656667605</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3449803720939855</v>
+        <v>0.1677690562049676</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.438772355505535</v>
       </c>
       <c r="L5">
-        <v>0.02065268983653379</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7564352331955249</v>
       </c>
       <c r="O5">
-        <v>9.173944706915762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1562947676873279</v>
+        <v>0.1059574147366789</v>
       </c>
       <c r="D6">
-        <v>0.2496023868529278</v>
+        <v>0.07948343763455767</v>
       </c>
       <c r="E6">
-        <v>0.03237633946910812</v>
+        <v>0.1124236434792323</v>
       </c>
       <c r="F6">
-        <v>10.99388316778646</v>
+        <v>1.31961246875791</v>
       </c>
       <c r="G6">
-        <v>0.0007671999667094535</v>
+        <v>1.02501918423944</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6577649426707808</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3431400497525061</v>
+        <v>0.1668444792137862</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.413724365901373</v>
       </c>
       <c r="L6">
-        <v>0.02067649961240559</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7584785612618461</v>
       </c>
       <c r="O6">
-        <v>9.110044632877106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.160767888096558</v>
+        <v>0.1115200073866021</v>
       </c>
       <c r="D7">
-        <v>0.2657803271759178</v>
+        <v>0.08264180590602166</v>
       </c>
       <c r="E7">
-        <v>0.03241366539473312</v>
+        <v>0.1167919336447873</v>
       </c>
       <c r="F7">
-        <v>11.52568215698653</v>
+        <v>1.354444494858043</v>
       </c>
       <c r="G7">
-        <v>0.0007560469062623644</v>
+        <v>1.054964858762062</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6687198961570004</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3561706263433848</v>
+        <v>0.1732908690194179</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.587843691510216</v>
       </c>
       <c r="L7">
-        <v>0.02051161492251019</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7444076734491851</v>
       </c>
       <c r="O7">
-        <v>9.561410487813589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1835573635191423</v>
+        <v>0.1364119471139986</v>
       </c>
       <c r="D8">
-        <v>0.3455043047415671</v>
+        <v>0.0967123310234328</v>
       </c>
       <c r="E8">
-        <v>0.03282539502854398</v>
+        <v>0.1364621821739362</v>
       </c>
       <c r="F8">
-        <v>14.17027476582911</v>
+        <v>1.516154389834796</v>
       </c>
       <c r="G8">
-        <v>0.0007048505226529507</v>
+        <v>1.194264823495388</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7209928430339971</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4218276221083386</v>
+        <v>0.2025154706046166</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.363566359858851</v>
       </c>
       <c r="L8">
-        <v>0.01978880038986475</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6851721718486203</v>
       </c>
       <c r="O8">
-        <v>11.8043707921376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.252899330513074</v>
+        <v>0.1869091768816702</v>
       </c>
       <c r="D9">
-        <v>0.5754050291446049</v>
+        <v>0.1249137406206557</v>
       </c>
       <c r="E9">
-        <v>0.03530017516040651</v>
+        <v>0.1768017813095284</v>
       </c>
       <c r="F9">
-        <v>21.87714823111736</v>
+        <v>1.868042916397684</v>
       </c>
       <c r="G9">
-        <v>0.0005807318769157628</v>
+        <v>1.498808696175246</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.8402537730949859</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6185050995583197</v>
+        <v>0.2633154493706797</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5.921604751738982</v>
       </c>
       <c r="L9">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5801666428653007</v>
       </c>
       <c r="O9">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.252899330513074</v>
+        <v>0.225510431002192</v>
       </c>
       <c r="D10">
-        <v>0.5754050291446049</v>
+        <v>0.1461457279873173</v>
       </c>
       <c r="E10">
-        <v>0.03530017516040651</v>
+        <v>0.2078929293539105</v>
       </c>
       <c r="F10">
-        <v>21.87714823111736</v>
+        <v>2.154213331389968</v>
       </c>
       <c r="G10">
-        <v>0.0005807318769157628</v>
+        <v>1.747744966855066</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.940900669886048</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6185050995583197</v>
+        <v>0.3108592996053687</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.099967040266733</v>
       </c>
       <c r="L10">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5107635828650956</v>
       </c>
       <c r="O10">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.252899330513074</v>
+        <v>0.2435170192531615</v>
       </c>
       <c r="D11">
-        <v>0.5754050291446049</v>
+        <v>0.1559517254524252</v>
       </c>
       <c r="E11">
-        <v>0.03530017516040651</v>
+        <v>0.2224483966821609</v>
       </c>
       <c r="F11">
-        <v>21.87714823111736</v>
+        <v>2.292037481525043</v>
       </c>
       <c r="G11">
-        <v>0.0005807318769157628</v>
+        <v>1.868003223857272</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.990231728864245</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6185050995583197</v>
+        <v>0.3333021970387904</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7.646202185512493</v>
       </c>
       <c r="L11">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4811121223463282</v>
       </c>
       <c r="O11">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.252899330513074</v>
+        <v>0.2504111991374742</v>
       </c>
       <c r="D12">
-        <v>0.5754050291446049</v>
+        <v>0.159689551021799</v>
       </c>
       <c r="E12">
-        <v>0.03530017516040651</v>
+        <v>0.2280284574003844</v>
       </c>
       <c r="F12">
-        <v>21.87714823111736</v>
+        <v>2.345482783586505</v>
       </c>
       <c r="G12">
-        <v>0.0005807318769157628</v>
+        <v>1.914697596504027</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.009490294459397</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6185050995583197</v>
+        <v>0.3419359732120455</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7.85478322082696</v>
       </c>
       <c r="L12">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4701831168691868</v>
       </c>
       <c r="O12">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.252899330513074</v>
+        <v>0.2489228639307299</v>
       </c>
       <c r="D13">
-        <v>0.5754050291446049</v>
+        <v>0.1588833966548151</v>
       </c>
       <c r="E13">
-        <v>0.03530017516040651</v>
+        <v>0.2268235025851268</v>
       </c>
       <c r="F13">
-        <v>21.87714823111736</v>
+        <v>2.333913922122292</v>
       </c>
       <c r="G13">
-        <v>0.0005807318769157628</v>
+        <v>1.904587227452566</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.005315739393495</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6185050995583197</v>
+        <v>0.3400702151501349</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7.809779834452115</v>
       </c>
       <c r="L13">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.4725231600952</v>
       </c>
       <c r="O13">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.252899330513074</v>
+        <v>0.2440826257675326</v>
       </c>
       <c r="D14">
-        <v>0.5754050291446049</v>
+        <v>0.1562587271415765</v>
       </c>
       <c r="E14">
-        <v>0.03530017516040651</v>
+        <v>0.2229060490479355</v>
       </c>
       <c r="F14">
-        <v>21.87714823111736</v>
+        <v>2.296408364568535</v>
       </c>
       <c r="G14">
-        <v>0.0005807318769157628</v>
+        <v>1.871820744200363</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.991804139886483</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6185050995583197</v>
+        <v>0.3340096839431226</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.663325874716861</v>
       </c>
       <c r="L14">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.4802068439908105</v>
       </c>
       <c r="O14">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.252899330513074</v>
+        <v>0.2411280256916513</v>
       </c>
       <c r="D15">
-        <v>0.5754050291446049</v>
+        <v>0.1546543374874858</v>
       </c>
       <c r="E15">
-        <v>0.03530017516040651</v>
+        <v>0.220515665135828</v>
       </c>
       <c r="F15">
-        <v>21.87714823111736</v>
+        <v>2.273603399592901</v>
       </c>
       <c r="G15">
-        <v>0.0005807318769157628</v>
+        <v>1.851905413728502</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.9836053240821911</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6185050995583197</v>
+        <v>0.330315602767044</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7.573852884032078</v>
       </c>
       <c r="L15">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.4849530438893161</v>
       </c>
       <c r="O15">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.252899330513074</v>
+        <v>0.2243435779724763</v>
       </c>
       <c r="D16">
-        <v>0.5754050291446049</v>
+        <v>0.145508123900882</v>
       </c>
       <c r="E16">
-        <v>0.03530017516040651</v>
+        <v>0.206950728605598</v>
       </c>
       <c r="F16">
-        <v>21.87714823111736</v>
+        <v>2.145372850325558</v>
       </c>
       <c r="G16">
-        <v>0.0005807318769157628</v>
+        <v>1.740039091990269</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.9377537574638666</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6185050995583197</v>
+        <v>0.3094104877664421</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.064496557980874</v>
       </c>
       <c r="L16">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5127419406313471</v>
       </c>
       <c r="O16">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.252899330513074</v>
+        <v>0.2141688651587117</v>
       </c>
       <c r="D17">
-        <v>0.5754050291446049</v>
+        <v>0.1399372177144329</v>
       </c>
       <c r="E17">
-        <v>0.03530017516040651</v>
+        <v>0.1987406527420106</v>
       </c>
       <c r="F17">
-        <v>21.87714823111736</v>
+        <v>2.068769953297206</v>
       </c>
       <c r="G17">
-        <v>0.0005807318769157628</v>
+        <v>1.673308330255367</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.9105794559393132</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6185050995583197</v>
+        <v>0.2968067105380783</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6.754814110625603</v>
       </c>
       <c r="L17">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.5302970523470094</v>
       </c>
       <c r="O17">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.252899330513074</v>
+        <v>0.208357937628648</v>
       </c>
       <c r="D18">
-        <v>0.5754050291446049</v>
+        <v>0.1367466403411015</v>
       </c>
       <c r="E18">
-        <v>0.03530017516040651</v>
+        <v>0.1940566118153555</v>
       </c>
       <c r="F18">
-        <v>21.87714823111736</v>
+        <v>2.025419145071439</v>
       </c>
       <c r="G18">
-        <v>0.0005807318769157628</v>
+        <v>1.635577195490384</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.8952787826325448</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6185050995583197</v>
+        <v>0.2896328647868245</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.577634451921597</v>
       </c>
       <c r="L18">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.5405734981838037</v>
       </c>
       <c r="O18">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.252899330513074</v>
+        <v>0.2063972288202791</v>
       </c>
       <c r="D19">
-        <v>0.5754050291446049</v>
+        <v>0.1356686173836152</v>
       </c>
       <c r="E19">
-        <v>0.03530017516040651</v>
+        <v>0.192476976405672</v>
       </c>
       <c r="F19">
-        <v>21.87714823111736</v>
+        <v>2.010858675461861</v>
       </c>
       <c r="G19">
-        <v>0.0005807318769157628</v>
+        <v>1.622909653159979</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.8901528484861672</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6185050995583197</v>
+        <v>0.2872163812216968</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.517798520083602</v>
       </c>
       <c r="L19">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.5440830418955827</v>
       </c>
       <c r="O19">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.252899330513074</v>
+        <v>0.2152476292119587</v>
       </c>
       <c r="D20">
-        <v>0.5754050291446049</v>
+        <v>0.1405288136669895</v>
       </c>
       <c r="E20">
-        <v>0.03530017516040651</v>
+        <v>0.1996106164009745</v>
       </c>
       <c r="F20">
-        <v>21.87714823111736</v>
+        <v>2.076850003249689</v>
       </c>
       <c r="G20">
-        <v>0.0005807318769157628</v>
+        <v>1.68034359165577</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.9134376622762375</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6185050995583197</v>
+        <v>0.2981404656284639</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.787681056185193</v>
       </c>
       <c r="L20">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5284095736506664</v>
       </c>
       <c r="O20">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.252899330513074</v>
+        <v>0.2455021764039884</v>
       </c>
       <c r="D21">
-        <v>0.5754050291446049</v>
+        <v>0.1570289628205757</v>
       </c>
       <c r="E21">
-        <v>0.03530017516040651</v>
+        <v>0.2240547716081451</v>
       </c>
       <c r="F21">
-        <v>21.87714823111736</v>
+        <v>2.307389284157239</v>
       </c>
       <c r="G21">
-        <v>0.0005807318769157628</v>
+        <v>1.881412447772419</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.9957565546428384</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6185050995583197</v>
+        <v>0.3357859872271121</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7.706293601490984</v>
       </c>
       <c r="L21">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4779416364069142</v>
       </c>
       <c r="O21">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.252899330513074</v>
+        <v>0.2657214215417696</v>
       </c>
       <c r="D22">
-        <v>0.5754050291446049</v>
+        <v>0.1679574352306048</v>
       </c>
       <c r="E22">
-        <v>0.03530017516040651</v>
+        <v>0.2404330690254213</v>
       </c>
       <c r="F22">
-        <v>21.87714823111736</v>
+        <v>2.465457233004059</v>
       </c>
       <c r="G22">
-        <v>0.0005807318769157628</v>
+        <v>2.019637258923268</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.052963386328543</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6185050995583197</v>
+        <v>0.3611871878164266</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>8.316914217398448</v>
       </c>
       <c r="L22">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4467156703424102</v>
       </c>
       <c r="O22">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.252899330513074</v>
+        <v>0.2548851332485782</v>
       </c>
       <c r="D23">
-        <v>0.5754050291446049</v>
+        <v>0.1621102704409623</v>
       </c>
       <c r="E23">
-        <v>0.03530017516040651</v>
+        <v>0.2316515625663911</v>
       </c>
       <c r="F23">
-        <v>21.87714823111736</v>
+        <v>2.380360184855121</v>
       </c>
       <c r="G23">
-        <v>0.0005807318769157628</v>
+        <v>1.945187348453572</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.022094584632498</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6185050995583197</v>
+        <v>0.3475505770127967</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.989978781673244</v>
       </c>
       <c r="L23">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4632123050682466</v>
       </c>
       <c r="O23">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.252899330513074</v>
+        <v>0.2147598004287516</v>
       </c>
       <c r="D24">
-        <v>0.5754050291446049</v>
+        <v>0.1402613153475869</v>
       </c>
       <c r="E24">
-        <v>0.03530017516040651</v>
+        <v>0.1992171942359064</v>
       </c>
       <c r="F24">
-        <v>21.87714823111736</v>
+        <v>2.073194877390705</v>
       </c>
       <c r="G24">
-        <v>0.0005807318769157628</v>
+        <v>1.677160988314625</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.9121444686619213</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6185050995583197</v>
+        <v>0.2975372512883752</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>6.772819248401163</v>
       </c>
       <c r="L24">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5292623320624479</v>
       </c>
       <c r="O24">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.252899330513074</v>
+        <v>0.1730219809044655</v>
       </c>
       <c r="D25">
-        <v>0.5754050291446049</v>
+        <v>0.1172056057295947</v>
       </c>
       <c r="E25">
-        <v>0.03530017516040651</v>
+        <v>0.165663204746572</v>
       </c>
       <c r="F25">
-        <v>21.87714823111736</v>
+        <v>1.768500886403288</v>
       </c>
       <c r="G25">
-        <v>0.0005807318769157628</v>
+        <v>1.412475312099161</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.8059245178187382</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6185050995583197</v>
+        <v>0.2464214656425838</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.495083807025196</v>
       </c>
       <c r="L25">
-        <v>0.01830662848562081</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6072878545940341</v>
       </c>
       <c r="O25">
-        <v>18.33418695505964</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1432544306008197</v>
+        <v>0.04823258445971135</v>
       </c>
       <c r="D2">
-        <v>0.1005612192672629</v>
+        <v>0.1224246141273895</v>
       </c>
       <c r="E2">
-        <v>0.141898707186197</v>
+        <v>0.1476342773254267</v>
       </c>
       <c r="F2">
-        <v>1.562107101338427</v>
+        <v>2.059477635247433</v>
       </c>
       <c r="G2">
-        <v>1.233928320162732</v>
+        <v>1.402221260560992</v>
       </c>
       <c r="H2">
-        <v>0.7361957089439386</v>
+        <v>1.264792942939124</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2106450777601339</v>
+        <v>0.2025163487838313</v>
       </c>
       <c r="K2">
-        <v>4.575866471882421</v>
+        <v>1.997077446537446</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6698456516985765</v>
+        <v>1.337031879664575</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1235253777363283</v>
+        <v>0.04286911234592594</v>
       </c>
       <c r="D3">
-        <v>0.08944118898504172</v>
+        <v>0.1198512049305833</v>
       </c>
       <c r="E3">
-        <v>0.1262559704001589</v>
+        <v>0.1444842076393549</v>
       </c>
       <c r="F3">
-        <v>1.431308680312583</v>
+        <v>2.045598682726435</v>
       </c>
       <c r="G3">
-        <v>1.121121840933867</v>
+        <v>1.388397046314395</v>
       </c>
       <c r="H3">
-        <v>0.6933036414962999</v>
+        <v>1.265332143120119</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1873132478553856</v>
+        <v>0.1980897476281811</v>
       </c>
       <c r="K3">
-        <v>3.962658825542348</v>
+        <v>1.832599853824945</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7151184442946921</v>
+        <v>1.354643802496216</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1115852663396737</v>
+        <v>0.03959357139387976</v>
       </c>
       <c r="D4">
-        <v>0.0826788299959702</v>
+        <v>0.1183083128177955</v>
       </c>
       <c r="E4">
-        <v>0.1168432483719855</v>
+        <v>0.1426247150590498</v>
       </c>
       <c r="F4">
-        <v>1.354856192353907</v>
+        <v>2.038466716932092</v>
       </c>
       <c r="G4">
-        <v>1.055318931563903</v>
+        <v>1.381007647272696</v>
       </c>
       <c r="H4">
-        <v>0.668850120423798</v>
+        <v>1.266427981994497</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1733666954574815</v>
+        <v>0.1954972664896601</v>
       </c>
       <c r="K4">
-        <v>3.589884687090887</v>
+        <v>1.732298993553627</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7442445518463003</v>
+        <v>1.366040991631554</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1067570459148612</v>
+        <v>0.03826311294965024</v>
       </c>
       <c r="D5">
-        <v>0.07993775635378597</v>
+        <v>0.1176889741765237</v>
       </c>
       <c r="E5">
-        <v>0.113050878640216</v>
+        <v>0.1418857152039408</v>
       </c>
       <c r="F5">
-        <v>1.32458739060931</v>
+        <v>2.035908665409295</v>
       </c>
       <c r="G5">
-        <v>1.029294873236836</v>
+        <v>1.378271336674061</v>
       </c>
       <c r="H5">
-        <v>0.6593217656667605</v>
+        <v>1.267066374194343</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1677690562049676</v>
+        <v>0.1944722517749895</v>
       </c>
       <c r="K5">
-        <v>3.438772355505535</v>
+        <v>1.69159868694652</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7564352331955249</v>
+        <v>1.370832048508017</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1059574147366789</v>
+        <v>0.03804245158517006</v>
       </c>
       <c r="D6">
-        <v>0.07948343763455767</v>
+        <v>0.117586702843937</v>
       </c>
       <c r="E6">
-        <v>0.1124236434792323</v>
+        <v>0.1417641373601057</v>
       </c>
       <c r="F6">
-        <v>1.31961246875791</v>
+        <v>2.035504903862801</v>
       </c>
       <c r="G6">
-        <v>1.02501918423944</v>
+        <v>1.377833540045316</v>
       </c>
       <c r="H6">
-        <v>0.6577649426707808</v>
+        <v>1.267183950856648</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1668444792137862</v>
+        <v>0.1943039447830017</v>
       </c>
       <c r="K6">
-        <v>3.413724365901373</v>
+        <v>1.68485088363127</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7584785612618461</v>
+        <v>1.371636452225637</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1115200073866021</v>
+        <v>0.03957561086328099</v>
       </c>
       <c r="D7">
-        <v>0.08264180590602166</v>
+        <v>0.1182999220625263</v>
       </c>
       <c r="E7">
-        <v>0.1167919336447873</v>
+        <v>0.1426146727160429</v>
       </c>
       <c r="F7">
-        <v>1.354444494858043</v>
+        <v>2.038430809551599</v>
       </c>
       <c r="G7">
-        <v>1.054964858762062</v>
+        <v>1.380969633049148</v>
       </c>
       <c r="H7">
-        <v>0.6687198961570004</v>
+        <v>1.266435815510334</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1732908690194179</v>
+        <v>0.1954833156144744</v>
       </c>
       <c r="K7">
-        <v>3.587843691510216</v>
+        <v>1.731749394264227</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7444076734491851</v>
+        <v>1.366105012008699</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1364119471139986</v>
+        <v>0.04637954083946738</v>
       </c>
       <c r="D8">
-        <v>0.0967123310234328</v>
+        <v>0.1215296125259471</v>
       </c>
       <c r="E8">
-        <v>0.1364621821739362</v>
+        <v>0.1465326256874953</v>
       </c>
       <c r="F8">
-        <v>1.516154389834796</v>
+        <v>2.054402999223967</v>
       </c>
       <c r="G8">
-        <v>1.194264823495388</v>
+        <v>1.397225805595724</v>
       </c>
       <c r="H8">
-        <v>0.7209928430339971</v>
+        <v>1.26481983891108</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2025154706046166</v>
+        <v>0.2009639481352963</v>
       </c>
       <c r="K8">
-        <v>4.363566359858851</v>
+        <v>1.940222402903942</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6851721718486203</v>
+        <v>1.342983331999875</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1869091768816702</v>
+        <v>0.05986674108068257</v>
       </c>
       <c r="D9">
-        <v>0.1249137406206557</v>
+        <v>0.1281563473433636</v>
       </c>
       <c r="E9">
-        <v>0.1768017813095284</v>
+        <v>0.1548094828464741</v>
       </c>
       <c r="F9">
-        <v>1.868042916397684</v>
+        <v>2.096810044606585</v>
       </c>
       <c r="G9">
-        <v>1.498808696175246</v>
+        <v>1.437887059129991</v>
       </c>
       <c r="H9">
-        <v>0.8402537730949859</v>
+        <v>1.267742370350959</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2633154493706797</v>
+        <v>0.212712738344365</v>
       </c>
       <c r="K9">
-        <v>5.921604751738982</v>
+        <v>2.354535662301032</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5801666428653007</v>
+        <v>1.302274490156506</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.225510431002192</v>
+        <v>0.06987143655841521</v>
       </c>
       <c r="D10">
-        <v>0.1461457279873173</v>
+        <v>0.1332020794362307</v>
       </c>
       <c r="E10">
-        <v>0.2078929293539105</v>
+        <v>0.1612552224944892</v>
       </c>
       <c r="F10">
-        <v>2.154213331389968</v>
+        <v>2.134812701045632</v>
       </c>
       <c r="G10">
-        <v>1.747744966855066</v>
+        <v>1.473211064882378</v>
       </c>
       <c r="H10">
-        <v>0.940900669886048</v>
+        <v>1.273638032478885</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3108592996053687</v>
+        <v>0.2219641849698348</v>
       </c>
       <c r="K10">
-        <v>7.099967040266733</v>
+        <v>2.662361062089076</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5107635828650956</v>
+        <v>1.275194536277638</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2435170192531615</v>
+        <v>0.07444527041840843</v>
       </c>
       <c r="D11">
-        <v>0.1559517254524252</v>
+        <v>0.1355356437042445</v>
       </c>
       <c r="E11">
-        <v>0.2224483966821609</v>
+        <v>0.1642674208564756</v>
       </c>
       <c r="F11">
-        <v>2.292037481525043</v>
+        <v>2.153607338401272</v>
       </c>
       <c r="G11">
-        <v>1.868003223857272</v>
+        <v>1.490485522160839</v>
       </c>
       <c r="H11">
-        <v>0.990231728864245</v>
+        <v>1.277141886667749</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3333021970387904</v>
+        <v>0.2263095358627112</v>
       </c>
       <c r="K11">
-        <v>7.646202185512493</v>
+        <v>2.803162785800907</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4811121223463282</v>
+        <v>1.263490554850737</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2504111991374742</v>
+        <v>0.07618063378271245</v>
       </c>
       <c r="D12">
-        <v>0.159689551021799</v>
+        <v>0.1364247631849906</v>
       </c>
       <c r="E12">
-        <v>0.2280284574003844</v>
+        <v>0.1654196037325235</v>
       </c>
       <c r="F12">
-        <v>2.345482783586505</v>
+        <v>2.160942579596735</v>
       </c>
       <c r="G12">
-        <v>1.914697596504027</v>
+        <v>1.497201877956883</v>
       </c>
       <c r="H12">
-        <v>1.009490294459397</v>
+        <v>1.278587498223544</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3419359732120455</v>
+        <v>0.2279748292319965</v>
       </c>
       <c r="K12">
-        <v>7.85478322082696</v>
+        <v>2.856592408569668</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4701831168691868</v>
+        <v>1.259147115761518</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2489228639307299</v>
+        <v>0.07580674163897072</v>
       </c>
       <c r="D13">
-        <v>0.1588833966548151</v>
+        <v>0.1362330338061355</v>
       </c>
       <c r="E13">
-        <v>0.2268235025851268</v>
+        <v>0.1651709473820873</v>
       </c>
       <c r="F13">
-        <v>2.333913922122292</v>
+        <v>2.159353080583102</v>
       </c>
       <c r="G13">
-        <v>1.904587227452566</v>
+        <v>1.495747587110856</v>
       </c>
       <c r="H13">
-        <v>1.005315739393495</v>
+        <v>1.278270867713701</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3400702151501349</v>
+        <v>0.2276152956833783</v>
       </c>
       <c r="K13">
-        <v>7.809779834452115</v>
+        <v>2.845080438748823</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4725231600952</v>
+        <v>1.260078609182521</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2440826257675326</v>
+        <v>0.07458797208448686</v>
       </c>
       <c r="D14">
-        <v>0.1562587271415765</v>
+        <v>0.1356086831629568</v>
       </c>
       <c r="E14">
-        <v>0.2229060490479355</v>
+        <v>0.1643619804349967</v>
       </c>
       <c r="F14">
-        <v>2.296408364568535</v>
+        <v>2.154206433525658</v>
       </c>
       <c r="G14">
-        <v>1.871820744200363</v>
+        <v>1.491034566673079</v>
       </c>
       <c r="H14">
-        <v>0.991804139886483</v>
+        <v>1.277258434095273</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3340096839431226</v>
+        <v>0.2264461429192437</v>
       </c>
       <c r="K14">
-        <v>7.663325874716861</v>
+        <v>2.807556245347484</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4802068439908105</v>
+        <v>1.26313144059214</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2411280256916513</v>
+        <v>0.07384187987598523</v>
       </c>
       <c r="D15">
-        <v>0.1546543374874858</v>
+        <v>0.1352269585940036</v>
       </c>
       <c r="E15">
-        <v>0.220515665135828</v>
+        <v>0.1638679669633021</v>
       </c>
       <c r="F15">
-        <v>2.273603399592901</v>
+        <v>2.151082411379235</v>
       </c>
       <c r="G15">
-        <v>1.851905413728502</v>
+        <v>1.488170528458085</v>
       </c>
       <c r="H15">
-        <v>0.9836053240821911</v>
+        <v>1.276653775370931</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.330315602767044</v>
+        <v>0.2257325859169299</v>
       </c>
       <c r="K15">
-        <v>7.573852884032078</v>
+        <v>2.784586066465693</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4849530438893161</v>
+        <v>1.265012932824533</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2243435779724763</v>
+        <v>0.06957298959052594</v>
       </c>
       <c r="D16">
-        <v>0.145508123900882</v>
+        <v>0.133050340723571</v>
       </c>
       <c r="E16">
-        <v>0.206950728605598</v>
+        <v>0.1610599801407062</v>
       </c>
       <c r="F16">
-        <v>2.145372850325558</v>
+        <v>2.133614872865806</v>
       </c>
       <c r="G16">
-        <v>1.740039091990269</v>
+        <v>1.472106527017502</v>
       </c>
       <c r="H16">
-        <v>0.9377537574638666</v>
+        <v>1.273425636230201</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3094104877664421</v>
+        <v>0.221682970207226</v>
       </c>
       <c r="K16">
-        <v>7.064496557980874</v>
+        <v>2.653174864131131</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5127419406313471</v>
+        <v>1.275971807175878</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2141688651587117</v>
+        <v>0.0669600315939789</v>
       </c>
       <c r="D17">
-        <v>0.1399372177144329</v>
+        <v>0.1317248141604495</v>
       </c>
       <c r="E17">
-        <v>0.1987406527420106</v>
+        <v>0.1593578782501694</v>
       </c>
       <c r="F17">
-        <v>2.068769953297206</v>
+        <v>2.123286089977341</v>
       </c>
       <c r="G17">
-        <v>1.673308330255367</v>
+        <v>1.462561616973971</v>
       </c>
       <c r="H17">
-        <v>0.9105794559393132</v>
+        <v>1.271656200894796</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2968067105380783</v>
+        <v>0.2192337961918582</v>
       </c>
       <c r="K17">
-        <v>6.754814110625603</v>
+        <v>2.572755856434469</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5302970523470094</v>
+        <v>1.282852327868614</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.208357937628648</v>
+        <v>0.06545925323088397</v>
       </c>
       <c r="D18">
-        <v>0.1367466403411015</v>
+        <v>0.1309660081137878</v>
       </c>
       <c r="E18">
-        <v>0.1940566118153555</v>
+        <v>0.1583864025898194</v>
       </c>
       <c r="F18">
-        <v>2.025419145071439</v>
+        <v>2.117487011537534</v>
       </c>
       <c r="G18">
-        <v>1.635577195490384</v>
+        <v>1.457185000002966</v>
       </c>
       <c r="H18">
-        <v>0.8952787826325448</v>
+        <v>1.270715792619399</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2896328647868245</v>
+        <v>0.2178379665473216</v>
       </c>
       <c r="K18">
-        <v>6.577634451921597</v>
+        <v>2.526573465214483</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5405734981838037</v>
+        <v>1.286867679523283</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2063972288202791</v>
+        <v>0.06495147772207588</v>
       </c>
       <c r="D19">
-        <v>0.1356686173836152</v>
+        <v>0.1307097095343579</v>
       </c>
       <c r="E19">
-        <v>0.192476976405672</v>
+        <v>0.158058769879311</v>
       </c>
       <c r="F19">
-        <v>2.010858675461861</v>
+        <v>2.115547848684159</v>
       </c>
       <c r="G19">
-        <v>1.622909653159979</v>
+        <v>1.455383992752843</v>
       </c>
       <c r="H19">
-        <v>0.8901528484861672</v>
+        <v>1.270410649128792</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2872163812216968</v>
+        <v>0.2173675692461075</v>
       </c>
       <c r="K19">
-        <v>6.517798520083602</v>
+        <v>2.51094934416011</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5440830418955827</v>
+        <v>1.288237140037765</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2152476292119587</v>
+        <v>0.0672379647155168</v>
       </c>
       <c r="D20">
-        <v>0.1405288136669895</v>
+        <v>0.1318655463109053</v>
       </c>
       <c r="E20">
-        <v>0.1996106164009745</v>
+        <v>0.1595382905707439</v>
       </c>
       <c r="F20">
-        <v>2.076850003249689</v>
+        <v>2.124370924367426</v>
       </c>
       <c r="G20">
-        <v>1.68034359165577</v>
+        <v>1.463565945095723</v>
       </c>
       <c r="H20">
-        <v>0.9134376622762375</v>
+        <v>1.27183655332621</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2981404656284639</v>
+        <v>0.21949318197602</v>
       </c>
       <c r="K20">
-        <v>6.787681056185193</v>
+        <v>2.581309092200343</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5284095736506664</v>
+        <v>1.282113895252294</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2455021764039884</v>
+        <v>0.07494586251851842</v>
       </c>
       <c r="D21">
-        <v>0.1570289628205757</v>
+        <v>0.1357919225739579</v>
       </c>
       <c r="E21">
-        <v>0.2240547716081451</v>
+        <v>0.1645992805459073</v>
       </c>
       <c r="F21">
-        <v>2.307389284157239</v>
+        <v>2.155712197489962</v>
       </c>
       <c r="G21">
-        <v>1.881412447772419</v>
+        <v>1.492414135945381</v>
       </c>
       <c r="H21">
-        <v>0.9957565546428384</v>
+        <v>1.277552582032968</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3357859872271121</v>
+        <v>0.2267890129365497</v>
       </c>
       <c r="K21">
-        <v>7.706293601490984</v>
+        <v>2.818574993819198</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4779416364069142</v>
+        <v>1.262232343710558</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2657214215417696</v>
+        <v>0.08000300068181332</v>
       </c>
       <c r="D22">
-        <v>0.1679574352306048</v>
+        <v>0.1383897772062994</v>
       </c>
       <c r="E22">
-        <v>0.2404330690254213</v>
+        <v>0.1679741407406325</v>
       </c>
       <c r="F22">
-        <v>2.465457233004059</v>
+        <v>2.177467567696311</v>
       </c>
       <c r="G22">
-        <v>2.019637258923268</v>
+        <v>1.512288245814261</v>
       </c>
       <c r="H22">
-        <v>1.052963386328543</v>
+        <v>1.281980946899381</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3611871878164266</v>
+        <v>0.2316727501110307</v>
       </c>
       <c r="K22">
-        <v>8.316914217398448</v>
+        <v>2.974289510642166</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4467156703424102</v>
+        <v>1.249755152737784</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2548851332485782</v>
+        <v>0.07730208750825796</v>
       </c>
       <c r="D23">
-        <v>0.1621102704409623</v>
+        <v>0.137000364966525</v>
       </c>
       <c r="E23">
-        <v>0.2316515625663911</v>
+        <v>0.1661667560055804</v>
       </c>
       <c r="F23">
-        <v>2.380360184855121</v>
+        <v>2.165739455458919</v>
       </c>
       <c r="G23">
-        <v>1.945187348453572</v>
+        <v>1.501587196104708</v>
       </c>
       <c r="H23">
-        <v>1.022094584632498</v>
+        <v>1.279553873758033</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3475505770127967</v>
+        <v>0.229055597322926</v>
       </c>
       <c r="K23">
-        <v>7.989978781673244</v>
+        <v>2.891122389988425</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4632123050682466</v>
+        <v>1.256367133425805</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2147598004287516</v>
+        <v>0.06711230665626999</v>
       </c>
       <c r="D24">
-        <v>0.1402613153475869</v>
+        <v>0.1318019111586324</v>
       </c>
       <c r="E24">
-        <v>0.1992171942359064</v>
+        <v>0.1594567040935857</v>
       </c>
       <c r="F24">
-        <v>2.073194877390705</v>
+        <v>2.123880037633569</v>
       </c>
       <c r="G24">
-        <v>1.677160988314625</v>
+        <v>1.463111543092566</v>
       </c>
       <c r="H24">
-        <v>0.9121444686619213</v>
+        <v>1.271754776606969</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2975372512883752</v>
+        <v>0.2193758755700799</v>
       </c>
       <c r="K24">
-        <v>6.772819248401163</v>
+        <v>2.57744201371105</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5292623320624479</v>
+        <v>1.28244755484695</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1730219809044655</v>
+        <v>0.05620183905715237</v>
       </c>
       <c r="D25">
-        <v>0.1172056057295947</v>
+        <v>0.1263324212145704</v>
       </c>
       <c r="E25">
-        <v>0.165663204746572</v>
+        <v>0.1525065261315248</v>
       </c>
       <c r="F25">
-        <v>1.768500886403288</v>
+        <v>2.084141974768031</v>
       </c>
       <c r="G25">
-        <v>1.412475312099161</v>
+        <v>1.425936980850366</v>
       </c>
       <c r="H25">
-        <v>0.8059245178187382</v>
+        <v>1.26629603067363</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2464214656425838</v>
+        <v>0.2094262408622569</v>
       </c>
       <c r="K25">
-        <v>5.495083807025196</v>
+        <v>2.241856433415478</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6072878545940341</v>
+        <v>1.312790906575486</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04823258445971135</v>
+        <v>0.1432544306007486</v>
       </c>
       <c r="D2">
-        <v>0.1224246141273895</v>
+        <v>0.1005612192672558</v>
       </c>
       <c r="E2">
-        <v>0.1476342773254267</v>
+        <v>0.1418987071862041</v>
       </c>
       <c r="F2">
-        <v>2.059477635247433</v>
+        <v>1.562107101338398</v>
       </c>
       <c r="G2">
-        <v>1.402221260560992</v>
+        <v>1.233928320162818</v>
       </c>
       <c r="H2">
-        <v>1.264792942939124</v>
+        <v>0.7361957089439386</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2025163487838313</v>
+        <v>0.2106450777601765</v>
       </c>
       <c r="K2">
-        <v>1.997077446537446</v>
+        <v>4.575866471882478</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.337031879664575</v>
+        <v>0.6698456516985587</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04286911234592594</v>
+        <v>0.1235253777361862</v>
       </c>
       <c r="D3">
-        <v>0.1198512049305833</v>
+        <v>0.08944118898492093</v>
       </c>
       <c r="E3">
-        <v>0.1444842076393549</v>
+        <v>0.1262559704001198</v>
       </c>
       <c r="F3">
-        <v>2.045598682726435</v>
+        <v>1.431308680312583</v>
       </c>
       <c r="G3">
-        <v>1.388397046314395</v>
+        <v>1.121121840933824</v>
       </c>
       <c r="H3">
-        <v>1.265332143120119</v>
+        <v>0.6933036414962146</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1980897476281811</v>
+        <v>0.187313247855478</v>
       </c>
       <c r="K3">
-        <v>1.832599853824945</v>
+        <v>3.962658825542348</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.354643802496216</v>
+        <v>0.7151184442947027</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03959357139387976</v>
+        <v>0.1115852663395174</v>
       </c>
       <c r="D4">
-        <v>0.1183083128177955</v>
+        <v>0.08267882999597731</v>
       </c>
       <c r="E4">
-        <v>0.1426247150590498</v>
+        <v>0.1168432483720103</v>
       </c>
       <c r="F4">
-        <v>2.038466716932092</v>
+        <v>1.354856192353893</v>
       </c>
       <c r="G4">
-        <v>1.381007647272696</v>
+        <v>1.055318931563903</v>
       </c>
       <c r="H4">
-        <v>1.266427981994497</v>
+        <v>0.6688501204237696</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1954972664896601</v>
+        <v>0.1733666954574318</v>
       </c>
       <c r="K4">
-        <v>1.732298993553627</v>
+        <v>3.589884687091001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.366040991631554</v>
+        <v>0.7442445518462826</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03826311294965024</v>
+        <v>0.1067570459148754</v>
       </c>
       <c r="D5">
-        <v>0.1176889741765237</v>
+        <v>0.07993775635371492</v>
       </c>
       <c r="E5">
-        <v>0.1418857152039408</v>
+        <v>0.1130508786402018</v>
       </c>
       <c r="F5">
-        <v>2.035908665409295</v>
+        <v>1.32458739060931</v>
       </c>
       <c r="G5">
-        <v>1.378271336674061</v>
+        <v>1.029294873236836</v>
       </c>
       <c r="H5">
-        <v>1.267066374194343</v>
+        <v>0.6593217656668742</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1944722517749895</v>
+        <v>0.1677690562049889</v>
       </c>
       <c r="K5">
-        <v>1.69159868694652</v>
+        <v>3.438772355505535</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.370832048508017</v>
+        <v>0.7564352331955853</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03804245158517006</v>
+        <v>0.1059574147365367</v>
       </c>
       <c r="D6">
-        <v>0.117586702843937</v>
+        <v>0.07948343763455767</v>
       </c>
       <c r="E6">
-        <v>0.1417641373601057</v>
+        <v>0.1124236434792536</v>
       </c>
       <c r="F6">
-        <v>2.035504903862801</v>
+        <v>1.319612468757896</v>
       </c>
       <c r="G6">
-        <v>1.377833540045316</v>
+        <v>1.02501918423944</v>
       </c>
       <c r="H6">
-        <v>1.267183950856648</v>
+        <v>0.6577649426707808</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1943039447830017</v>
+        <v>0.166844479213843</v>
       </c>
       <c r="K6">
-        <v>1.68485088363127</v>
+        <v>3.413724365901373</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.371636452225637</v>
+        <v>0.7584785612618461</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03957561086328099</v>
+        <v>0.1115200073866305</v>
       </c>
       <c r="D7">
-        <v>0.1182999220625263</v>
+        <v>0.0826418059059506</v>
       </c>
       <c r="E7">
-        <v>0.1426146727160429</v>
+        <v>0.116791933644798</v>
       </c>
       <c r="F7">
-        <v>2.038430809551599</v>
+        <v>1.354444494858058</v>
       </c>
       <c r="G7">
-        <v>1.380969633049148</v>
+        <v>1.054964858762048</v>
       </c>
       <c r="H7">
-        <v>1.266435815510334</v>
+        <v>0.6687198961570004</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1954833156144744</v>
+        <v>0.1732908690193824</v>
       </c>
       <c r="K7">
-        <v>1.731749394264227</v>
+        <v>3.587843691510159</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.366105012008699</v>
+        <v>0.744407673449178</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04637954083946738</v>
+        <v>0.1364119471138281</v>
       </c>
       <c r="D8">
-        <v>0.1215296125259471</v>
+        <v>0.09671233102354648</v>
       </c>
       <c r="E8">
-        <v>0.1465326256874953</v>
+        <v>0.1364621821739789</v>
       </c>
       <c r="F8">
-        <v>2.054402999223967</v>
+        <v>1.51615438983481</v>
       </c>
       <c r="G8">
-        <v>1.397225805595724</v>
+        <v>1.194264823495388</v>
       </c>
       <c r="H8">
-        <v>1.26481983891108</v>
+        <v>0.7209928430339687</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2009639481352963</v>
+        <v>0.2025154706045313</v>
       </c>
       <c r="K8">
-        <v>1.940222402903942</v>
+        <v>4.363566359858794</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.342983331999875</v>
+        <v>0.6851721718486594</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05986674108068257</v>
+        <v>0.1869091768819118</v>
       </c>
       <c r="D9">
-        <v>0.1281563473433636</v>
+        <v>0.1249137406209826</v>
       </c>
       <c r="E9">
-        <v>0.1548094828464741</v>
+        <v>0.1768017813095071</v>
       </c>
       <c r="F9">
-        <v>2.096810044606585</v>
+        <v>1.868042916397684</v>
       </c>
       <c r="G9">
-        <v>1.437887059129991</v>
+        <v>1.49880869617536</v>
       </c>
       <c r="H9">
-        <v>1.267742370350959</v>
+        <v>0.8402537730949859</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.212712738344365</v>
+        <v>0.2633154493707366</v>
       </c>
       <c r="K9">
-        <v>2.354535662301032</v>
+        <v>5.921604751738926</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.302274490156506</v>
+        <v>0.5801666428653185</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06987143655841521</v>
+        <v>0.2255104310018652</v>
       </c>
       <c r="D10">
-        <v>0.1332020794362307</v>
+        <v>0.1461457279873031</v>
       </c>
       <c r="E10">
-        <v>0.1612552224944892</v>
+        <v>0.2078929293538749</v>
       </c>
       <c r="F10">
-        <v>2.134812701045632</v>
+        <v>2.154213331389997</v>
       </c>
       <c r="G10">
-        <v>1.473211064882378</v>
+        <v>1.747744966855066</v>
       </c>
       <c r="H10">
-        <v>1.273638032478885</v>
+        <v>0.9409006698859343</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2219641849698348</v>
+        <v>0.3108592996053403</v>
       </c>
       <c r="K10">
-        <v>2.662361062089076</v>
+        <v>7.099967040266677</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.275194536277638</v>
+        <v>0.5107635828651524</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07444527041840843</v>
+        <v>0.2435170192531757</v>
       </c>
       <c r="D11">
-        <v>0.1355356437042445</v>
+        <v>0.155951725452411</v>
       </c>
       <c r="E11">
-        <v>0.1642674208564756</v>
+        <v>0.2224483966821538</v>
       </c>
       <c r="F11">
-        <v>2.153607338401272</v>
+        <v>2.292037481525057</v>
       </c>
       <c r="G11">
-        <v>1.490485522160839</v>
+        <v>1.868003223857272</v>
       </c>
       <c r="H11">
-        <v>1.277141886667749</v>
+        <v>0.9902317288643587</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2263095358627112</v>
+        <v>0.3333021970386625</v>
       </c>
       <c r="K11">
-        <v>2.803162785800907</v>
+        <v>7.646202185512436</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.263490554850737</v>
+        <v>0.4811121223463317</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07618063378271245</v>
+        <v>0.2504111991374458</v>
       </c>
       <c r="D12">
-        <v>0.1364247631849906</v>
+        <v>0.1596895510218133</v>
       </c>
       <c r="E12">
-        <v>0.1654196037325235</v>
+        <v>0.2280284574003772</v>
       </c>
       <c r="F12">
-        <v>2.160942579596735</v>
+        <v>2.345482783586505</v>
       </c>
       <c r="G12">
-        <v>1.497201877956883</v>
+        <v>1.914697596504027</v>
       </c>
       <c r="H12">
-        <v>1.278587498223544</v>
+        <v>1.009490294459511</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2279748292319965</v>
+        <v>0.3419359732119602</v>
       </c>
       <c r="K12">
-        <v>2.856592408569668</v>
+        <v>7.854783220826789</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.259147115761518</v>
+        <v>0.4701831168691832</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07580674163897072</v>
+        <v>0.2489228639307441</v>
       </c>
       <c r="D13">
-        <v>0.1362330338061355</v>
+        <v>0.1588833966549146</v>
       </c>
       <c r="E13">
-        <v>0.1651709473820873</v>
+        <v>0.2268235025851411</v>
       </c>
       <c r="F13">
-        <v>2.159353080583102</v>
+        <v>2.333913922122292</v>
       </c>
       <c r="G13">
-        <v>1.495747587110856</v>
+        <v>1.904587227452538</v>
       </c>
       <c r="H13">
-        <v>1.278270867713701</v>
+        <v>1.005315739393609</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2276152956833783</v>
+        <v>0.3400702151501349</v>
       </c>
       <c r="K13">
-        <v>2.845080438748823</v>
+        <v>7.809779834452058</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.260078609182521</v>
+        <v>0.4725231600951965</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07458797208448686</v>
+        <v>0.2440826257675468</v>
       </c>
       <c r="D14">
-        <v>0.1356086831629568</v>
+        <v>0.1562587271416902</v>
       </c>
       <c r="E14">
-        <v>0.1643619804349967</v>
+        <v>0.2229060490479426</v>
       </c>
       <c r="F14">
-        <v>2.154206433525658</v>
+        <v>2.296408364568535</v>
       </c>
       <c r="G14">
-        <v>1.491034566673079</v>
+        <v>1.871820744200306</v>
       </c>
       <c r="H14">
-        <v>1.277258434095273</v>
+        <v>0.991804139886483</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2264461429192437</v>
+        <v>0.3340096839431226</v>
       </c>
       <c r="K14">
-        <v>2.807556245347484</v>
+        <v>7.663325874716747</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.26313144059214</v>
+        <v>0.4802068439908211</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07384187987598523</v>
+        <v>0.2411280256916939</v>
       </c>
       <c r="D15">
-        <v>0.1352269585940036</v>
+        <v>0.1546543374876848</v>
       </c>
       <c r="E15">
-        <v>0.1638679669633021</v>
+        <v>0.2205156651357711</v>
       </c>
       <c r="F15">
-        <v>2.151082411379235</v>
+        <v>2.273603399592915</v>
       </c>
       <c r="G15">
-        <v>1.488170528458085</v>
+        <v>1.851905413728531</v>
       </c>
       <c r="H15">
-        <v>1.276653775370931</v>
+        <v>0.9836053240822196</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2257325859169299</v>
+        <v>0.3303156027671008</v>
       </c>
       <c r="K15">
-        <v>2.784586066465693</v>
+        <v>7.573852884031908</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.265012932824533</v>
+        <v>0.4849530438893161</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06957298959052594</v>
+        <v>0.2243435779724905</v>
       </c>
       <c r="D16">
-        <v>0.133050340723571</v>
+        <v>0.1455081239011093</v>
       </c>
       <c r="E16">
-        <v>0.1610599801407062</v>
+        <v>0.2069507286056051</v>
       </c>
       <c r="F16">
-        <v>2.133614872865806</v>
+        <v>2.145372850325572</v>
       </c>
       <c r="G16">
-        <v>1.472106527017502</v>
+        <v>1.740039091990241</v>
       </c>
       <c r="H16">
-        <v>1.273425636230201</v>
+        <v>0.9377537574638666</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.221682970207226</v>
+        <v>0.3094104877664563</v>
       </c>
       <c r="K16">
-        <v>2.653174864131131</v>
+        <v>7.064496557980817</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.275971807175878</v>
+        <v>0.5127419406314075</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0669600315939789</v>
+        <v>0.2141688651589106</v>
       </c>
       <c r="D17">
-        <v>0.1317248141604495</v>
+        <v>0.1399372177142197</v>
       </c>
       <c r="E17">
-        <v>0.1593578782501694</v>
+        <v>0.1987406527420248</v>
       </c>
       <c r="F17">
-        <v>2.123286089977341</v>
+        <v>2.06876995329722</v>
       </c>
       <c r="G17">
-        <v>1.462561616973971</v>
+        <v>1.673308330255338</v>
       </c>
       <c r="H17">
-        <v>1.271656200894796</v>
+        <v>0.9105794559392848</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2192337961918582</v>
+        <v>0.2968067105380072</v>
       </c>
       <c r="K17">
-        <v>2.572755856434469</v>
+        <v>6.754814110625659</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.282852327868614</v>
+        <v>0.5302970523469384</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06545925323088397</v>
+        <v>0.208357937628648</v>
       </c>
       <c r="D18">
-        <v>0.1309660081137878</v>
+        <v>0.1367466403411015</v>
       </c>
       <c r="E18">
-        <v>0.1583864025898194</v>
+        <v>0.1940566118153129</v>
       </c>
       <c r="F18">
-        <v>2.117487011537534</v>
+        <v>2.025419145071425</v>
       </c>
       <c r="G18">
-        <v>1.457185000002966</v>
+        <v>1.635577195490384</v>
       </c>
       <c r="H18">
-        <v>1.270715792619399</v>
+        <v>0.8952787826326585</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2178379665473216</v>
+        <v>0.2896328647868671</v>
       </c>
       <c r="K18">
-        <v>2.526573465214483</v>
+        <v>6.577634451921483</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.286867679523283</v>
+        <v>0.5405734981837931</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06495147772207588</v>
+        <v>0.2063972288208049</v>
       </c>
       <c r="D19">
-        <v>0.1307097095343579</v>
+        <v>0.1356686173838142</v>
       </c>
       <c r="E19">
-        <v>0.158058769879311</v>
+        <v>0.1924769764056862</v>
       </c>
       <c r="F19">
-        <v>2.115547848684159</v>
+        <v>2.010858675461876</v>
       </c>
       <c r="G19">
-        <v>1.455383992752843</v>
+        <v>1.622909653159894</v>
       </c>
       <c r="H19">
-        <v>1.270410649128792</v>
+        <v>0.8901528484862808</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2173675692461075</v>
+        <v>0.2872163812217252</v>
       </c>
       <c r="K19">
-        <v>2.51094934416011</v>
+        <v>6.517798520083488</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.288237140037765</v>
+        <v>0.5440830418955755</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0672379647155168</v>
+        <v>0.2152476292119587</v>
       </c>
       <c r="D20">
-        <v>0.1318655463109053</v>
+        <v>0.1405288136671032</v>
       </c>
       <c r="E20">
-        <v>0.1595382905707439</v>
+        <v>0.199610616401003</v>
       </c>
       <c r="F20">
-        <v>2.124370924367426</v>
+        <v>2.076850003249675</v>
       </c>
       <c r="G20">
-        <v>1.463565945095723</v>
+        <v>1.680343591655799</v>
       </c>
       <c r="H20">
-        <v>1.27183655332621</v>
+        <v>0.9134376622761238</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.21949318197602</v>
+        <v>0.2981404656284923</v>
       </c>
       <c r="K20">
-        <v>2.581309092200343</v>
+        <v>6.787681056185079</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.282113895252294</v>
+        <v>0.5284095736506274</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07494586251851842</v>
+        <v>0.2455021764038037</v>
       </c>
       <c r="D21">
-        <v>0.1357919225739579</v>
+        <v>0.1570289628205757</v>
       </c>
       <c r="E21">
-        <v>0.1645992805459073</v>
+        <v>0.2240547716081167</v>
       </c>
       <c r="F21">
-        <v>2.155712197489962</v>
+        <v>2.307389284157253</v>
       </c>
       <c r="G21">
-        <v>1.492414135945381</v>
+        <v>1.881412447772362</v>
       </c>
       <c r="H21">
-        <v>1.277552582032968</v>
+        <v>0.9957565546428384</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2267890129365497</v>
+        <v>0.3357859872271121</v>
       </c>
       <c r="K21">
-        <v>2.818574993819198</v>
+        <v>7.706293601491041</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.262232343710558</v>
+        <v>0.4779416364069107</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08000300068181332</v>
+        <v>0.2657214215422243</v>
       </c>
       <c r="D22">
-        <v>0.1383897772062994</v>
+        <v>0.1679574352306048</v>
       </c>
       <c r="E22">
-        <v>0.1679741407406325</v>
+        <v>0.2404330690253786</v>
       </c>
       <c r="F22">
-        <v>2.177467567696311</v>
+        <v>2.465457233004031</v>
       </c>
       <c r="G22">
-        <v>1.512288245814261</v>
+        <v>2.01963725892324</v>
       </c>
       <c r="H22">
-        <v>1.281980946899381</v>
+        <v>1.052963386328543</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2316727501110307</v>
+        <v>0.3611871878164976</v>
       </c>
       <c r="K22">
-        <v>2.974289510642166</v>
+        <v>8.316914217398335</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.249755152737784</v>
+        <v>0.4467156703424315</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07730208750825796</v>
+        <v>0.2548851332489761</v>
       </c>
       <c r="D23">
-        <v>0.137000364966525</v>
+        <v>0.1621102704409765</v>
       </c>
       <c r="E23">
-        <v>0.1661667560055804</v>
+        <v>0.2316515625664266</v>
       </c>
       <c r="F23">
-        <v>2.165739455458919</v>
+        <v>2.380360184855164</v>
       </c>
       <c r="G23">
-        <v>1.501587196104708</v>
+        <v>1.945187348453459</v>
       </c>
       <c r="H23">
-        <v>1.279553873758033</v>
+        <v>1.02209458463247</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.229055597322926</v>
+        <v>0.3475505770128677</v>
       </c>
       <c r="K23">
-        <v>2.891122389988425</v>
+        <v>7.989978781673415</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.256367133425805</v>
+        <v>0.4632123050682573</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06711230665626999</v>
+        <v>0.2147598004287516</v>
       </c>
       <c r="D24">
-        <v>0.1318019111586324</v>
+        <v>0.1402613153474874</v>
       </c>
       <c r="E24">
-        <v>0.1594567040935857</v>
+        <v>0.1992171942359349</v>
       </c>
       <c r="F24">
-        <v>2.123880037633569</v>
+        <v>2.073194877390705</v>
       </c>
       <c r="G24">
-        <v>1.463111543092566</v>
+        <v>1.677160988314597</v>
       </c>
       <c r="H24">
-        <v>1.271754776606969</v>
+        <v>0.9121444686620634</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2193758755700799</v>
+        <v>0.297537251288432</v>
       </c>
       <c r="K24">
-        <v>2.57744201371105</v>
+        <v>6.772819248401163</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.28244755484695</v>
+        <v>0.5292623320624408</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05620183905715237</v>
+        <v>0.173021980904764</v>
       </c>
       <c r="D25">
-        <v>0.1263324212145704</v>
+        <v>0.1172056057296942</v>
       </c>
       <c r="E25">
-        <v>0.1525065261315248</v>
+        <v>0.165663204746572</v>
       </c>
       <c r="F25">
-        <v>2.084141974768031</v>
+        <v>1.768500886403302</v>
       </c>
       <c r="G25">
-        <v>1.425936980850366</v>
+        <v>1.412475312099048</v>
       </c>
       <c r="H25">
-        <v>1.26629603067363</v>
+        <v>0.8059245178188235</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2094262408622569</v>
+        <v>0.2464214656425696</v>
       </c>
       <c r="K25">
-        <v>2.241856433415478</v>
+        <v>5.495083807025139</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.312790906575486</v>
+        <v>0.6072878545940945</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1432544306007486</v>
+        <v>0.195444946661766</v>
       </c>
       <c r="D2">
-        <v>0.1005612192672558</v>
+        <v>0.08648202564359053</v>
       </c>
       <c r="E2">
-        <v>0.1418987071862041</v>
+        <v>0.1084268109719915</v>
       </c>
       <c r="F2">
-        <v>1.562107101338398</v>
+        <v>1.422168031617005</v>
       </c>
       <c r="G2">
-        <v>1.233928320162818</v>
+        <v>1.137960904176978</v>
       </c>
       <c r="H2">
-        <v>0.7361957089439386</v>
+        <v>0.0009396797436811433</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005377594914452555</v>
       </c>
       <c r="J2">
-        <v>0.2106450777601765</v>
+        <v>0.6892836669894677</v>
       </c>
       <c r="K2">
-        <v>4.575866471882478</v>
+        <v>1.042039572899853</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1514535694049997</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6698456516985587</v>
+        <v>0.1215248963211764</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3.804381601200191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1235253777361862</v>
+        <v>0.1820179036016754</v>
       </c>
       <c r="D3">
-        <v>0.08944118898492093</v>
+        <v>0.08155607911643159</v>
       </c>
       <c r="E3">
-        <v>0.1262559704001198</v>
+        <v>0.1007880530107421</v>
       </c>
       <c r="F3">
-        <v>1.431308680312583</v>
+        <v>1.291522143230694</v>
       </c>
       <c r="G3">
-        <v>1.121121840933824</v>
+        <v>1.019736084564187</v>
       </c>
       <c r="H3">
-        <v>0.6933036414962146</v>
+        <v>0.0002128151483342666</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00321115104001235</v>
       </c>
       <c r="J3">
-        <v>0.187313247855478</v>
+        <v>0.6357505283868647</v>
       </c>
       <c r="K3">
-        <v>3.962658825542348</v>
+        <v>0.946893656425118</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1397048342087288</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7151184442947027</v>
+        <v>0.1126638922972347</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3.441410314719292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1115852663395174</v>
+        <v>0.1735891502417459</v>
       </c>
       <c r="D4">
-        <v>0.08267882999597731</v>
+        <v>0.07856131634409991</v>
       </c>
       <c r="E4">
-        <v>0.1168432483720103</v>
+        <v>0.09606626360354298</v>
       </c>
       <c r="F4">
-        <v>1.354856192353893</v>
+        <v>1.21157377451938</v>
       </c>
       <c r="G4">
-        <v>1.055318931563903</v>
+        <v>0.9473055107104784</v>
       </c>
       <c r="H4">
-        <v>0.6688501204237696</v>
+        <v>1.889179513536732E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002169382131862463</v>
       </c>
       <c r="J4">
-        <v>0.1733666954574318</v>
+        <v>0.6030299654400864</v>
       </c>
       <c r="K4">
-        <v>3.589884687091001</v>
+        <v>0.888446486460019</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1324116705714005</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7442445518462826</v>
+        <v>0.1072654720136441</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3.219184464874218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1067570459148754</v>
+        <v>0.1697556322587204</v>
       </c>
       <c r="D5">
-        <v>0.07993775635371492</v>
+        <v>0.07735971746913606</v>
       </c>
       <c r="E5">
-        <v>0.1130508786402018</v>
+        <v>0.09408805760920202</v>
       </c>
       <c r="F5">
-        <v>1.32458739060931</v>
+        <v>1.178197253718182</v>
       </c>
       <c r="G5">
-        <v>1.029294873236836</v>
+        <v>0.9169939113580057</v>
       </c>
       <c r="H5">
-        <v>0.6593217656668742</v>
+        <v>1.814265848665286E-09</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001869327273429366</v>
       </c>
       <c r="J5">
-        <v>0.1677690562049889</v>
+        <v>0.5893175444897594</v>
       </c>
       <c r="K5">
-        <v>3.438772355505535</v>
+        <v>0.8636825696366088</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1293128897898157</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7564352331955853</v>
+        <v>0.1051806304432858</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3.126143775570227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1059574147365367</v>
+        <v>0.1686870455202794</v>
       </c>
       <c r="D6">
-        <v>0.07948343763455767</v>
+        <v>0.07717508960326569</v>
       </c>
       <c r="E6">
-        <v>0.1124236434792536</v>
+        <v>0.09370338966209246</v>
       </c>
       <c r="F6">
-        <v>1.319612468757896</v>
+        <v>1.171613491507927</v>
       </c>
       <c r="G6">
-        <v>1.02501918423944</v>
+        <v>0.9109516093007244</v>
       </c>
       <c r="H6">
-        <v>0.6577649426707808</v>
+        <v>5.176985788946098E-07</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001899527768789433</v>
       </c>
       <c r="J6">
-        <v>0.166844479213843</v>
+        <v>0.5865388308127706</v>
       </c>
       <c r="K6">
-        <v>3.413724365901373</v>
+        <v>0.8584276026104121</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1286675880732346</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7584785612618461</v>
+        <v>0.1049645523793359</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3.10750448866213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1115200073866305</v>
+        <v>0.172361081091907</v>
       </c>
       <c r="D7">
-        <v>0.0826418059059506</v>
+        <v>0.07858480586676109</v>
       </c>
       <c r="E7">
-        <v>0.116791933644798</v>
+        <v>0.09588748983216178</v>
       </c>
       <c r="F7">
-        <v>1.354444494858058</v>
+        <v>1.208263164008841</v>
       </c>
       <c r="G7">
-        <v>1.054964858762048</v>
+        <v>0.9441285525718257</v>
       </c>
       <c r="H7">
-        <v>0.6687198961570004</v>
+        <v>1.744358030375537E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002355873340645687</v>
       </c>
       <c r="J7">
-        <v>0.1732908690193824</v>
+        <v>0.6014664222940524</v>
       </c>
       <c r="K7">
-        <v>3.587843691510159</v>
+        <v>0.8849852984217179</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1320157395921626</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.744407673449178</v>
+        <v>0.1075917467530161</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3.209174981898002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1364119471138281</v>
+        <v>0.1892842852965231</v>
       </c>
       <c r="D8">
-        <v>0.09671233102354648</v>
+        <v>0.08483029299768674</v>
       </c>
       <c r="E8">
-        <v>0.1364621821739789</v>
+        <v>0.1055972642679883</v>
       </c>
       <c r="F8">
-        <v>1.51615438983481</v>
+        <v>1.37324534731502</v>
       </c>
       <c r="G8">
-        <v>1.194264823495388</v>
+        <v>1.093462843293565</v>
       </c>
       <c r="H8">
-        <v>0.7209928430339687</v>
+        <v>0.0006274662705141321</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004784951341521015</v>
       </c>
       <c r="J8">
-        <v>0.2025154706045313</v>
+        <v>0.6689556050624788</v>
       </c>
       <c r="K8">
-        <v>4.363566359858794</v>
+        <v>1.005064680112625</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1469472862138375</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6851721718486594</v>
+        <v>0.1189326932324164</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3.667400687825051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1869091768819118</v>
+        <v>0.2231626629386199</v>
       </c>
       <c r="D9">
-        <v>0.1249137406209826</v>
+        <v>0.09726683771968681</v>
       </c>
       <c r="E9">
-        <v>0.1768017813095071</v>
+        <v>0.1246903366750871</v>
       </c>
       <c r="F9">
-        <v>1.868042916397684</v>
+        <v>1.704600040474972</v>
       </c>
       <c r="G9">
-        <v>1.49880869617536</v>
+        <v>1.3930662650084</v>
       </c>
       <c r="H9">
-        <v>0.8402537730949859</v>
+        <v>0.003999755482127498</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01177063171907289</v>
       </c>
       <c r="J9">
-        <v>0.2633154493707366</v>
+        <v>0.8051870832126724</v>
       </c>
       <c r="K9">
-        <v>5.921604751738926</v>
+        <v>1.246267296367009</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1762813360834699</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5801666428653185</v>
+        <v>0.1409248183353071</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4.588356628412214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2255104310018652</v>
+        <v>0.2439647531549838</v>
       </c>
       <c r="D10">
-        <v>0.1461457279873031</v>
+        <v>0.105009606747565</v>
       </c>
       <c r="E10">
-        <v>0.2078929293538749</v>
+        <v>0.1352166645662471</v>
       </c>
       <c r="F10">
-        <v>2.154213331389997</v>
+        <v>1.931379750606723</v>
       </c>
       <c r="G10">
-        <v>1.747744966855066</v>
+        <v>1.599906189859666</v>
       </c>
       <c r="H10">
-        <v>0.9409006698859343</v>
+        <v>0.007977056071741817</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01861491150947714</v>
       </c>
       <c r="J10">
-        <v>0.3108592996053403</v>
+        <v>0.8990296392078108</v>
       </c>
       <c r="K10">
-        <v>7.099967040266677</v>
+        <v>1.409802841685348</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1917854298144732</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5107635828651524</v>
+        <v>0.1520353001496346</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5.223704573554983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2435170192531757</v>
+        <v>0.2289756625383177</v>
       </c>
       <c r="D11">
-        <v>0.155951725452411</v>
+        <v>0.09509314489628196</v>
       </c>
       <c r="E11">
-        <v>0.2224483966821538</v>
+        <v>0.1129957860513819</v>
       </c>
       <c r="F11">
-        <v>2.292037481525057</v>
+        <v>1.877533958586284</v>
       </c>
       <c r="G11">
-        <v>1.868003223857272</v>
+        <v>1.571148424601489</v>
       </c>
       <c r="H11">
-        <v>0.9902317288643587</v>
+        <v>0.0267614831606835</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02085289450237138</v>
       </c>
       <c r="J11">
-        <v>0.3333021970386625</v>
+        <v>0.88118475354662</v>
       </c>
       <c r="K11">
-        <v>7.646202185512436</v>
+        <v>1.370146428102842</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1545960600727412</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4811121223463317</v>
+        <v>0.1145490291102433</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5.125565956581909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2504111991374458</v>
+        <v>0.2146094370153548</v>
       </c>
       <c r="D12">
-        <v>0.1596895510218133</v>
+        <v>0.08559296703673169</v>
       </c>
       <c r="E12">
-        <v>0.2280284574003772</v>
+        <v>0.09515247681000538</v>
       </c>
       <c r="F12">
-        <v>2.345482783586505</v>
+        <v>1.788347733413403</v>
       </c>
       <c r="G12">
-        <v>1.914697596504027</v>
+        <v>1.507032861601402</v>
       </c>
       <c r="H12">
-        <v>1.009490294459511</v>
+        <v>0.06508945956304046</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02094714484939075</v>
       </c>
       <c r="J12">
-        <v>0.3419359732119602</v>
+        <v>0.8480372129607758</v>
       </c>
       <c r="K12">
-        <v>7.854783220826789</v>
+        <v>1.306966151070611</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1268296707284051</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4701831168691832</v>
+        <v>0.08697229570171672</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4.920330508730842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2489228639307441</v>
+        <v>0.1981374280215107</v>
       </c>
       <c r="D13">
-        <v>0.1588833966549146</v>
+        <v>0.07597239901596708</v>
       </c>
       <c r="E13">
-        <v>0.2268235025851411</v>
+        <v>0.07948629763747483</v>
       </c>
       <c r="F13">
-        <v>2.333913922122292</v>
+        <v>1.662704204488904</v>
       </c>
       <c r="G13">
-        <v>1.904587227452538</v>
+        <v>1.407894713533494</v>
       </c>
       <c r="H13">
-        <v>1.005315739393609</v>
+        <v>0.1199875390425689</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01962274819466625</v>
       </c>
       <c r="J13">
-        <v>0.3400702151501349</v>
+        <v>0.7991259295190503</v>
       </c>
       <c r="K13">
-        <v>7.809779834452058</v>
+        <v>1.217403799866545</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1042543823786843</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4725231600951965</v>
+        <v>0.06604891835101157</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4.607772090766332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2440826257675468</v>
+        <v>0.1855991709863503</v>
       </c>
       <c r="D14">
-        <v>0.1562587271416902</v>
+        <v>0.06933341772972312</v>
       </c>
       <c r="E14">
-        <v>0.2229060490479426</v>
+        <v>0.06995893333778902</v>
       </c>
       <c r="F14">
-        <v>2.296408364568535</v>
+        <v>1.558347804973423</v>
       </c>
       <c r="G14">
-        <v>1.871820744200306</v>
+        <v>1.322535576978936</v>
       </c>
       <c r="H14">
-        <v>0.991804139886483</v>
+        <v>0.1685590282970963</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01817148687618975</v>
       </c>
       <c r="J14">
-        <v>0.3340096839431226</v>
+        <v>0.7576635296157974</v>
       </c>
       <c r="K14">
-        <v>7.663325874716747</v>
+        <v>1.142530133765618</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09172294852460539</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4802068439908211</v>
+        <v>0.0554743062599794</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4.339982091118941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2411280256916939</v>
+        <v>0.181694684581764</v>
       </c>
       <c r="D15">
-        <v>0.1546543374876848</v>
+        <v>0.06764221158194061</v>
       </c>
       <c r="E15">
-        <v>0.2205156651357711</v>
+        <v>0.06772109399295445</v>
       </c>
       <c r="F15">
-        <v>2.273603399592915</v>
+        <v>1.524423851992168</v>
       </c>
       <c r="G15">
-        <v>1.851905413728531</v>
+        <v>1.29353312235466</v>
       </c>
       <c r="H15">
-        <v>0.9836053240822196</v>
+        <v>0.1807257424415099</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0176139410838374</v>
       </c>
       <c r="J15">
-        <v>0.3303156027671008</v>
+        <v>0.7438501688913277</v>
       </c>
       <c r="K15">
-        <v>7.573852884031908</v>
+        <v>1.117745333246816</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08893776770859674</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4849530438893161</v>
+        <v>0.05345108697349232</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>4.249554889589035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2243435779724905</v>
+        <v>0.1760185634734839</v>
       </c>
       <c r="D16">
-        <v>0.1455081239011093</v>
+        <v>0.06651374395848819</v>
       </c>
       <c r="E16">
-        <v>0.2069507286056051</v>
+        <v>0.06677318899304652</v>
       </c>
       <c r="F16">
-        <v>2.145372850325572</v>
+        <v>1.453458783425546</v>
       </c>
       <c r="G16">
-        <v>1.740039091990241</v>
+        <v>1.225196447586853</v>
       </c>
       <c r="H16">
-        <v>0.9377537574638666</v>
+        <v>0.1663853924240328</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01499415118394154</v>
       </c>
       <c r="J16">
-        <v>0.3094104877664563</v>
+        <v>0.713522004646336</v>
       </c>
       <c r="K16">
-        <v>7.064496557980817</v>
+        <v>1.065856707323107</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08744153693805323</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5127419406314075</v>
+        <v>0.05359388980457069</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>4.041020075985784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2141688651589106</v>
+        <v>0.1780852616290147</v>
       </c>
       <c r="D17">
-        <v>0.1399372177142197</v>
+        <v>0.06908724679260558</v>
       </c>
       <c r="E17">
-        <v>0.1987406527420248</v>
+        <v>0.07075459319150212</v>
       </c>
       <c r="F17">
-        <v>2.06876995329722</v>
+        <v>1.453934206215095</v>
       </c>
       <c r="G17">
-        <v>1.673308330255338</v>
+        <v>1.21772657279368</v>
       </c>
       <c r="H17">
-        <v>0.9105794559392848</v>
+        <v>0.1278059087892984</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01378796559714779</v>
       </c>
       <c r="J17">
-        <v>0.2968067105380072</v>
+        <v>0.71213068709298</v>
       </c>
       <c r="K17">
-        <v>6.754814110625659</v>
+        <v>1.065367975150608</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09222456722854666</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5302970523469384</v>
+        <v>0.0586537537724876</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4.022155874054476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.208357937628648</v>
+        <v>0.1882976804259613</v>
       </c>
       <c r="D18">
-        <v>0.1367466403411015</v>
+        <v>0.0754393261653945</v>
       </c>
       <c r="E18">
-        <v>0.1940566118153129</v>
+        <v>0.08099811195170048</v>
       </c>
       <c r="F18">
-        <v>2.025419145071425</v>
+        <v>1.518414949998814</v>
       </c>
       <c r="G18">
-        <v>1.635577195490384</v>
+        <v>1.263996026021033</v>
       </c>
       <c r="H18">
-        <v>0.8952787826326585</v>
+        <v>0.07486204169620692</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01335945714829734</v>
       </c>
       <c r="J18">
-        <v>0.2896328647868671</v>
+        <v>0.7364997111896798</v>
       </c>
       <c r="K18">
-        <v>6.577634451921483</v>
+        <v>1.111731155570226</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1063011136550571</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5405734981837931</v>
+        <v>0.07188485633001207</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>4.171186593485402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2063972288208049</v>
+        <v>0.2033560885799943</v>
       </c>
       <c r="D19">
-        <v>0.1356686173838142</v>
+        <v>0.08497252638472474</v>
       </c>
       <c r="E19">
-        <v>0.1924769764056862</v>
+        <v>0.09765708416707142</v>
       </c>
       <c r="F19">
-        <v>2.010858675461876</v>
+        <v>1.626097013372089</v>
       </c>
       <c r="G19">
-        <v>1.622909653159894</v>
+        <v>1.346097623380928</v>
       </c>
       <c r="H19">
-        <v>0.8901528484862808</v>
+        <v>0.03020785671832016</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0140408294887262</v>
       </c>
       <c r="J19">
-        <v>0.2872163812217252</v>
+        <v>0.7776905366359586</v>
       </c>
       <c r="K19">
-        <v>6.517798520083488</v>
+        <v>1.187967900443084</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1313582203493588</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5440830418955755</v>
+        <v>0.09629545378104609</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>4.431438675870083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2152476292119587</v>
+        <v>0.2347491709547285</v>
       </c>
       <c r="D20">
-        <v>0.1405288136671032</v>
+        <v>0.103024026177863</v>
       </c>
       <c r="E20">
-        <v>0.199610616401003</v>
+        <v>0.1318457697335091</v>
       </c>
       <c r="F20">
-        <v>2.076850003249675</v>
+        <v>1.861816036586163</v>
       </c>
       <c r="G20">
-        <v>1.680343591655799</v>
+        <v>1.536046305992244</v>
       </c>
       <c r="H20">
-        <v>0.9134376622761238</v>
+        <v>0.006747490723430616</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01722449248777469</v>
       </c>
       <c r="J20">
-        <v>0.2981404656284923</v>
+        <v>0.8696433961202388</v>
       </c>
       <c r="K20">
-        <v>6.787681056185079</v>
+        <v>1.356346154018979</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1863941515345147</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5284095736506274</v>
+        <v>0.1499797108932057</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>5.026704847955273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2455021764038037</v>
+        <v>0.2553447184610889</v>
       </c>
       <c r="D21">
-        <v>0.1570289628205757</v>
+        <v>0.1115027288515407</v>
       </c>
       <c r="E21">
-        <v>0.2240547716081167</v>
+        <v>0.1451577940255433</v>
       </c>
       <c r="F21">
-        <v>2.307389284157253</v>
+        <v>2.065945902253119</v>
       </c>
       <c r="G21">
-        <v>1.881412447772362</v>
+        <v>1.718481270424519</v>
       </c>
       <c r="H21">
-        <v>0.9957565546428384</v>
+        <v>0.01044894972315527</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02327416415495698</v>
       </c>
       <c r="J21">
-        <v>0.3357859872271121</v>
+        <v>0.9534282729862582</v>
       </c>
       <c r="K21">
-        <v>7.706293601491041</v>
+        <v>1.503618875506803</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2070651477896206</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4779416364069107</v>
+        <v>0.1669989718780016</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>5.589150084821426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2657214215422243</v>
+        <v>0.2688857238893263</v>
       </c>
       <c r="D22">
-        <v>0.1679574352306048</v>
+        <v>0.1162180273264255</v>
       </c>
       <c r="E22">
-        <v>0.2404330690253786</v>
+        <v>0.1523636381021483</v>
       </c>
       <c r="F22">
-        <v>2.465457233004031</v>
+        <v>2.194948432541437</v>
       </c>
       <c r="G22">
-        <v>2.01963725892324</v>
+        <v>1.835073650442894</v>
       </c>
       <c r="H22">
-        <v>1.052963386328543</v>
+        <v>0.01322148166256792</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02735849745276386</v>
       </c>
       <c r="J22">
-        <v>0.3611871878164976</v>
+        <v>1.006935358609411</v>
       </c>
       <c r="K22">
-        <v>8.316914217398335</v>
+        <v>1.597913422393162</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2181858408324899</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4467156703424315</v>
+        <v>0.1748907153040307</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5.94851615551346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2548851332489761</v>
+        <v>0.2630839061053223</v>
       </c>
       <c r="D23">
-        <v>0.1621102704409765</v>
+        <v>0.1136477091197179</v>
       </c>
       <c r="E23">
-        <v>0.2316515625664266</v>
+        <v>0.1486999139292209</v>
       </c>
       <c r="F23">
-        <v>2.380360184855164</v>
+        <v>2.129505602948299</v>
       </c>
       <c r="G23">
-        <v>1.945187348453459</v>
+        <v>1.776166515706109</v>
       </c>
       <c r="H23">
-        <v>1.02209458463247</v>
+        <v>0.01173125031897307</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02493601427942327</v>
       </c>
       <c r="J23">
-        <v>0.3475505770128677</v>
+        <v>0.980015587191815</v>
       </c>
       <c r="K23">
-        <v>7.989978781673415</v>
+        <v>1.5513599435738</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2126800899262946</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4632123050682573</v>
+        <v>0.1702365245754436</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5.767184037509367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2147598004287516</v>
+        <v>0.2386511798340791</v>
       </c>
       <c r="D24">
-        <v>0.1402613153474874</v>
+        <v>0.104086580947083</v>
       </c>
       <c r="E24">
-        <v>0.1992171942359349</v>
+        <v>0.1345395827589364</v>
       </c>
       <c r="F24">
-        <v>2.073194877390705</v>
+        <v>1.877704957647666</v>
       </c>
       <c r="G24">
-        <v>1.677160988314597</v>
+        <v>1.549002321509107</v>
       </c>
       <c r="H24">
-        <v>0.9121444686620634</v>
+        <v>0.006774258701521485</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01691696015855104</v>
       </c>
       <c r="J24">
-        <v>0.297537251288432</v>
+        <v>0.8761383543373711</v>
       </c>
       <c r="K24">
-        <v>6.772819248401163</v>
+        <v>1.369659322770772</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1911069897294695</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5292623320624408</v>
+        <v>0.1534561631362692</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>5.067761981952401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.173021980904764</v>
+        <v>0.2119946336223251</v>
       </c>
       <c r="D25">
-        <v>0.1172056057296942</v>
+        <v>0.0939445987235743</v>
       </c>
       <c r="E25">
-        <v>0.165663204746572</v>
+        <v>0.1192673595953195</v>
       </c>
       <c r="F25">
-        <v>1.768500886403302</v>
+        <v>1.609336974735939</v>
       </c>
       <c r="G25">
-        <v>1.412475312099048</v>
+        <v>1.306654636197237</v>
       </c>
       <c r="H25">
-        <v>0.8059245178188235</v>
+        <v>0.002812089357899339</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.009887784357944795</v>
       </c>
       <c r="J25">
-        <v>0.2464214656425696</v>
+        <v>0.7656214110820656</v>
       </c>
       <c r="K25">
-        <v>5.495083807025139</v>
+        <v>1.175214312730105</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1677536578009367</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6072878545940945</v>
+        <v>0.1355789300985677</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>4.322181902306852</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.195444946661766</v>
+        <v>0.1290365645517966</v>
       </c>
       <c r="D2">
-        <v>0.08648202564359053</v>
+        <v>0.08829676304132761</v>
       </c>
       <c r="E2">
-        <v>0.1084268109719915</v>
+        <v>0.09921232923506196</v>
       </c>
       <c r="F2">
-        <v>1.422168031617005</v>
+        <v>1.264873158664088</v>
       </c>
       <c r="G2">
-        <v>1.137960904176978</v>
+        <v>0.9633935852171618</v>
       </c>
       <c r="H2">
-        <v>0.0009396797436811433</v>
+        <v>0.0007479756231769663</v>
       </c>
       <c r="I2">
-        <v>0.005377594914452555</v>
+        <v>0.00500431093271736</v>
       </c>
       <c r="J2">
-        <v>0.6892836669894677</v>
+        <v>0.6627214699238522</v>
       </c>
       <c r="K2">
-        <v>1.042039572899853</v>
+        <v>0.8692097331663646</v>
       </c>
       <c r="L2">
-        <v>0.1514535694049997</v>
+        <v>0.3960266913890607</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2717902941307813</v>
       </c>
       <c r="N2">
-        <v>0.1215248963211764</v>
+        <v>0.1310280591960904</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.146521239717714</v>
       </c>
       <c r="Q2">
-        <v>3.804381601200191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>3.326545193051686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1820179036016754</v>
+        <v>0.1225041608113955</v>
       </c>
       <c r="D3">
-        <v>0.08155607911643159</v>
+        <v>0.08321948678527491</v>
       </c>
       <c r="E3">
-        <v>0.1007880530107421</v>
+        <v>0.09287938458886202</v>
       </c>
       <c r="F3">
-        <v>1.291522143230694</v>
+        <v>1.15638822603384</v>
       </c>
       <c r="G3">
-        <v>1.019736084564187</v>
+        <v>0.8674572724194576</v>
       </c>
       <c r="H3">
-        <v>0.0002128151483342666</v>
+        <v>0.0001675913067595847</v>
       </c>
       <c r="I3">
-        <v>0.00321115104001235</v>
+        <v>0.003204418440438062</v>
       </c>
       <c r="J3">
-        <v>0.6357505283868647</v>
+        <v>0.6167291271984254</v>
       </c>
       <c r="K3">
-        <v>0.946893656425118</v>
+        <v>0.7976123895743044</v>
       </c>
       <c r="L3">
-        <v>0.1397048342087288</v>
+        <v>0.3808902185642538</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2337343616571346</v>
       </c>
       <c r="N3">
-        <v>0.1126638922972347</v>
+        <v>0.1220760825984719</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1349384878079789</v>
       </c>
       <c r="Q3">
-        <v>3.441410314719292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>3.031213857174492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1735891502417459</v>
+        <v>0.1183383951514045</v>
       </c>
       <c r="D4">
-        <v>0.07856131634409991</v>
+        <v>0.08013991134286158</v>
       </c>
       <c r="E4">
-        <v>0.09606626360354298</v>
+        <v>0.08895322674946016</v>
       </c>
       <c r="F4">
-        <v>1.21157377451938</v>
+        <v>1.089795284964723</v>
       </c>
       <c r="G4">
-        <v>0.9473055107104784</v>
+        <v>0.8086116379975721</v>
       </c>
       <c r="H4">
-        <v>1.889179513536732E-05</v>
+        <v>1.407975242861959E-05</v>
       </c>
       <c r="I4">
-        <v>0.002169382131862463</v>
+        <v>0.002316245415848073</v>
       </c>
       <c r="J4">
-        <v>0.6030299654400864</v>
+        <v>0.5883443170159808</v>
       </c>
       <c r="K4">
-        <v>0.888446486460019</v>
+        <v>0.7534003753398792</v>
       </c>
       <c r="L4">
-        <v>0.1324116705714005</v>
+        <v>0.3711144959476513</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2111806798153637</v>
       </c>
       <c r="N4">
-        <v>0.1072654720136441</v>
+        <v>0.1164865535627229</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1279107055091231</v>
       </c>
       <c r="Q4">
-        <v>3.219184464874218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.849746810752208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1697556322587204</v>
+        <v>0.1163831807594917</v>
       </c>
       <c r="D5">
-        <v>0.07735971746913606</v>
+        <v>0.07890650503254193</v>
       </c>
       <c r="E5">
-        <v>0.09408805760920202</v>
+        <v>0.08730159228704437</v>
       </c>
       <c r="F5">
-        <v>1.178197253718182</v>
+        <v>1.061866189295543</v>
       </c>
       <c r="G5">
-        <v>0.9169939113580057</v>
+        <v>0.7838873741097672</v>
       </c>
       <c r="H5">
-        <v>1.814265848665286E-09</v>
+        <v>1.304007191116341E-08</v>
       </c>
       <c r="I5">
-        <v>0.001869327273429366</v>
+        <v>0.002075074428089962</v>
       </c>
       <c r="J5">
-        <v>0.5893175444897594</v>
+        <v>0.5763491098013844</v>
       </c>
       <c r="K5">
-        <v>0.8636825696366088</v>
+        <v>0.7344845691675346</v>
       </c>
       <c r="L5">
-        <v>0.1293128897898157</v>
+        <v>0.3666554739302512</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2019165052109742</v>
       </c>
       <c r="N5">
-        <v>0.1051806304432858</v>
+        <v>0.1140916612769303</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1251860946201191</v>
       </c>
       <c r="Q5">
-        <v>3.126143775570227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.773348304317096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1686870455202794</v>
+        <v>0.1157911751561329</v>
       </c>
       <c r="D6">
-        <v>0.07717508960326569</v>
+        <v>0.07871754630405547</v>
       </c>
       <c r="E6">
-        <v>0.09370338966209246</v>
+        <v>0.08697558314240972</v>
       </c>
       <c r="F6">
-        <v>1.171613491507927</v>
+        <v>1.056262473057373</v>
       </c>
       <c r="G6">
-        <v>0.9109516093007244</v>
+        <v>0.778863409916525</v>
       </c>
       <c r="H6">
-        <v>5.176985788946098E-07</v>
+        <v>6.392737430527262E-07</v>
       </c>
       <c r="I6">
-        <v>0.001899527768789433</v>
+        <v>0.002131574747224363</v>
       </c>
       <c r="J6">
-        <v>0.5865388308127706</v>
+        <v>0.5738771754310363</v>
       </c>
       <c r="K6">
-        <v>0.8584276026104121</v>
+        <v>0.7303206958693096</v>
       </c>
       <c r="L6">
-        <v>0.1286675880732346</v>
+        <v>0.3654757078619895</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2000526177661257</v>
       </c>
       <c r="N6">
-        <v>0.1049645523793359</v>
+        <v>0.1135786405654429</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1248813730759863</v>
       </c>
       <c r="Q6">
-        <v>3.10750448866213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.757725961746274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.172361081091907</v>
+        <v>0.1176677527995267</v>
       </c>
       <c r="D7">
-        <v>0.07858480586676109</v>
+        <v>0.08027620417512793</v>
       </c>
       <c r="E7">
-        <v>0.09588748983216178</v>
+        <v>0.08881825594083992</v>
       </c>
       <c r="F7">
-        <v>1.208263164008841</v>
+        <v>1.085317724213539</v>
       </c>
       <c r="G7">
-        <v>0.9441285525718257</v>
+        <v>0.810806135187633</v>
       </c>
       <c r="H7">
-        <v>1.744358030375537E-05</v>
+        <v>1.264171279502513E-05</v>
       </c>
       <c r="I7">
-        <v>0.002355873340645687</v>
+        <v>0.002545044836002042</v>
       </c>
       <c r="J7">
-        <v>0.6014664222940524</v>
+        <v>0.5791775145274158</v>
       </c>
       <c r="K7">
-        <v>0.8849852984217179</v>
+        <v>0.7493391605423483</v>
       </c>
       <c r="L7">
-        <v>0.1320157395921626</v>
+        <v>0.369464294543846</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2097701057534707</v>
       </c>
       <c r="N7">
-        <v>0.1075917467530161</v>
+        <v>0.116111815041652</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1282567362134444</v>
       </c>
       <c r="Q7">
-        <v>3.209174981898002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.835816497897639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1892842852965231</v>
+        <v>0.1261337439029333</v>
       </c>
       <c r="D8">
-        <v>0.08483029299768674</v>
+        <v>0.08696751665062408</v>
       </c>
       <c r="E8">
-        <v>0.1055972642679883</v>
+        <v>0.09694371409911895</v>
       </c>
       <c r="F8">
-        <v>1.37324534731502</v>
+        <v>1.219087554758829</v>
       </c>
       <c r="G8">
-        <v>1.093462843293565</v>
+        <v>0.9438521772318751</v>
       </c>
       <c r="H8">
-        <v>0.0006274662705141321</v>
+        <v>0.000492527296200862</v>
       </c>
       <c r="I8">
-        <v>0.004784951341521015</v>
+        <v>0.004593950269731195</v>
       </c>
       <c r="J8">
-        <v>0.6689556050624788</v>
+        <v>0.619714982721689</v>
       </c>
       <c r="K8">
-        <v>1.005064680112625</v>
+        <v>0.8374847217797736</v>
       </c>
       <c r="L8">
-        <v>0.1469472862138375</v>
+        <v>0.3880777440820395</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.255972830982337</v>
       </c>
       <c r="N8">
-        <v>0.1189326932324164</v>
+        <v>0.1274469703923913</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1429861573344056</v>
       </c>
       <c r="Q8">
-        <v>3.667400687825051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>3.19781916828282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2231626629386199</v>
+        <v>0.1425290407286468</v>
       </c>
       <c r="D9">
-        <v>0.09726683771968681</v>
+        <v>0.09993167667062153</v>
       </c>
       <c r="E9">
-        <v>0.1246903366750871</v>
+        <v>0.1127488824002789</v>
       </c>
       <c r="F9">
-        <v>1.704600040474972</v>
+        <v>1.491929619876188</v>
       </c>
       <c r="G9">
-        <v>1.3930662650084</v>
+        <v>1.191746717961792</v>
       </c>
       <c r="H9">
-        <v>0.003999755482127498</v>
+        <v>0.003174820982295601</v>
       </c>
       <c r="I9">
-        <v>0.01177063171907289</v>
+        <v>0.01014369909990798</v>
       </c>
       <c r="J9">
-        <v>0.8051870832126724</v>
+        <v>0.7280184169483164</v>
       </c>
       <c r="K9">
-        <v>1.246267296367009</v>
+        <v>1.017190658510572</v>
       </c>
       <c r="L9">
-        <v>0.1762813360834699</v>
+        <v>0.4242970623761551</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3561843886917941</v>
       </c>
       <c r="N9">
-        <v>0.1409248183353071</v>
+        <v>0.1496345622798714</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1719389840290759</v>
       </c>
       <c r="Q9">
-        <v>4.588356628412214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3.939688080125563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2439647531549838</v>
+        <v>0.1527681636691938</v>
       </c>
       <c r="D10">
-        <v>0.105009606747565</v>
+        <v>0.1087025208526384</v>
       </c>
       <c r="E10">
-        <v>0.1352166645662471</v>
+        <v>0.1212981682927534</v>
       </c>
       <c r="F10">
-        <v>1.931379750606723</v>
+        <v>1.668130637262394</v>
       </c>
       <c r="G10">
-        <v>1.599906189859666</v>
+        <v>1.392733941212185</v>
       </c>
       <c r="H10">
-        <v>0.007977056071741817</v>
+        <v>0.006332141007304948</v>
       </c>
       <c r="I10">
-        <v>0.01861491150947714</v>
+        <v>0.01548047580477174</v>
       </c>
       <c r="J10">
-        <v>0.8990296392078108</v>
+        <v>0.7568699851315728</v>
       </c>
       <c r="K10">
-        <v>1.409802841685348</v>
+        <v>1.131016893536639</v>
       </c>
       <c r="L10">
-        <v>0.1917854298144732</v>
+        <v>0.4424121104008876</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4270819279154097</v>
       </c>
       <c r="N10">
-        <v>0.1520353001496346</v>
+        <v>0.1605165423681356</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.1872542960285273</v>
       </c>
       <c r="Q10">
-        <v>5.223704573554983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>4.417360529702933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2289756625383177</v>
+        <v>0.1466355951122935</v>
       </c>
       <c r="D11">
-        <v>0.09509314489628196</v>
+        <v>0.09966458843997827</v>
       </c>
       <c r="E11">
-        <v>0.1129957860513819</v>
+        <v>0.1010915835588335</v>
       </c>
       <c r="F11">
-        <v>1.877533958586284</v>
+        <v>1.599304592638148</v>
       </c>
       <c r="G11">
-        <v>1.571148424601489</v>
+        <v>1.432355154930036</v>
       </c>
       <c r="H11">
-        <v>0.0267614831606835</v>
+        <v>0.02494349003208285</v>
       </c>
       <c r="I11">
-        <v>0.02085289450237138</v>
+        <v>0.01731645061329967</v>
       </c>
       <c r="J11">
-        <v>0.88118475354662</v>
+        <v>0.6518149913760141</v>
       </c>
       <c r="K11">
-        <v>1.370146428102842</v>
+        <v>1.082558571657614</v>
       </c>
       <c r="L11">
-        <v>0.1545960600727412</v>
+        <v>0.4149019218968917</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.4196709829731162</v>
       </c>
       <c r="N11">
-        <v>0.1145490291102433</v>
+        <v>0.1286276167901086</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1426256659951548</v>
       </c>
       <c r="Q11">
-        <v>5.125565956581909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4.263554110101438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2146094370153548</v>
+        <v>0.140643240492011</v>
       </c>
       <c r="D12">
-        <v>0.08559296703673169</v>
+        <v>0.09015389646707916</v>
       </c>
       <c r="E12">
-        <v>0.09515247681000538</v>
+        <v>0.08513401166529633</v>
       </c>
       <c r="F12">
-        <v>1.788347733413403</v>
+        <v>1.513776923233905</v>
       </c>
       <c r="G12">
-        <v>1.507032861601402</v>
+        <v>1.406815881639346</v>
       </c>
       <c r="H12">
-        <v>0.06508945956304046</v>
+        <v>0.06329836973719694</v>
       </c>
       <c r="I12">
-        <v>0.02094714484939075</v>
+        <v>0.01736042845246999</v>
       </c>
       <c r="J12">
-        <v>0.8480372129607758</v>
+        <v>0.5885350156703453</v>
       </c>
       <c r="K12">
-        <v>1.306966151070611</v>
+        <v>1.026031145664504</v>
       </c>
       <c r="L12">
-        <v>0.1268296707284051</v>
+        <v>0.3913392861070975</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4011849259375495</v>
       </c>
       <c r="N12">
-        <v>0.08697229570171672</v>
+        <v>0.1062548348634778</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1082336257014305</v>
       </c>
       <c r="Q12">
-        <v>4.920330508730842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>4.063154838308208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1981374280215107</v>
+        <v>0.1332781844893169</v>
       </c>
       <c r="D13">
-        <v>0.07597239901596708</v>
+        <v>0.07970482628488185</v>
       </c>
       <c r="E13">
-        <v>0.07948629763747483</v>
+        <v>0.07136075920687368</v>
       </c>
       <c r="F13">
-        <v>1.662704204488904</v>
+        <v>1.409611325778812</v>
       </c>
       <c r="G13">
-        <v>1.407894713533494</v>
+        <v>1.312763182757237</v>
       </c>
       <c r="H13">
-        <v>0.1199875390425689</v>
+        <v>0.1183922799904735</v>
       </c>
       <c r="I13">
-        <v>0.01962274819466625</v>
+        <v>0.01636905624952512</v>
       </c>
       <c r="J13">
-        <v>0.7991259295190503</v>
+        <v>0.5625139947956654</v>
       </c>
       <c r="K13">
-        <v>1.217403799866545</v>
+        <v>0.9579653683087201</v>
       </c>
       <c r="L13">
-        <v>0.1042543823786843</v>
+        <v>0.3682172987730965</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3726242122650376</v>
       </c>
       <c r="N13">
-        <v>0.06604891835101157</v>
+        <v>0.08939698356160619</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.08056179590708368</v>
       </c>
       <c r="Q13">
-        <v>4.607772090766332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3.813779665769914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1855991709863503</v>
+        <v>0.1275452250721152</v>
       </c>
       <c r="D14">
-        <v>0.06933341772972312</v>
+        <v>0.07221597330876506</v>
       </c>
       <c r="E14">
-        <v>0.06995893333778902</v>
+        <v>0.06317600191182748</v>
       </c>
       <c r="F14">
-        <v>1.558347804973423</v>
+        <v>1.327624973751284</v>
       </c>
       <c r="G14">
-        <v>1.322535576978936</v>
+        <v>1.217613619462895</v>
       </c>
       <c r="H14">
-        <v>0.1685590282970963</v>
+        <v>0.1671618425412049</v>
       </c>
       <c r="I14">
-        <v>0.01817148687618975</v>
+        <v>0.01532050984698241</v>
       </c>
       <c r="J14">
-        <v>0.7576635296157974</v>
+        <v>0.5585409183297685</v>
       </c>
       <c r="K14">
-        <v>1.142530133765618</v>
+        <v>0.9043563822093503</v>
       </c>
       <c r="L14">
-        <v>0.09172294852460539</v>
+        <v>0.3517610428622788</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3480002766337904</v>
       </c>
       <c r="N14">
-        <v>0.0554743062599794</v>
+        <v>0.08089339847149724</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06539919964584229</v>
       </c>
       <c r="Q14">
-        <v>4.339982091118941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>3.614516952648501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.181694684581764</v>
+        <v>0.1256730427367394</v>
       </c>
       <c r="D15">
-        <v>0.06764221158194061</v>
+        <v>0.070209557467102</v>
       </c>
       <c r="E15">
-        <v>0.06772109399295445</v>
+        <v>0.06129513812133069</v>
       </c>
       <c r="F15">
-        <v>1.524423851992168</v>
+        <v>1.302463002485709</v>
       </c>
       <c r="G15">
-        <v>1.29353312235466</v>
+        <v>1.18091410273226</v>
       </c>
       <c r="H15">
-        <v>0.1807257424415099</v>
+        <v>0.1794139524717906</v>
       </c>
       <c r="I15">
-        <v>0.0176139410838374</v>
+        <v>0.01495994186182159</v>
       </c>
       <c r="J15">
-        <v>0.7438501688913277</v>
+        <v>0.5632095843647704</v>
       </c>
       <c r="K15">
-        <v>1.117745333246816</v>
+        <v>0.8876399362692453</v>
       </c>
       <c r="L15">
-        <v>0.08893776770859674</v>
+        <v>0.3473013249453132</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3395013635872317</v>
       </c>
       <c r="N15">
-        <v>0.05345108697349232</v>
+        <v>0.07914916674922257</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06229551683813739</v>
       </c>
       <c r="Q15">
-        <v>4.249554889589035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3.551722278904208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1760185634734839</v>
+        <v>0.1221106689642895</v>
       </c>
       <c r="D16">
-        <v>0.06651374395848819</v>
+        <v>0.06813208947936999</v>
       </c>
       <c r="E16">
-        <v>0.06677318899304652</v>
+        <v>0.06061620676187829</v>
       </c>
       <c r="F16">
-        <v>1.453458783425546</v>
+        <v>1.259949048729013</v>
       </c>
       <c r="G16">
-        <v>1.225196447586853</v>
+        <v>1.070095120905222</v>
       </c>
       <c r="H16">
-        <v>0.1663853924240328</v>
+        <v>0.1654254121841348</v>
       </c>
       <c r="I16">
-        <v>0.01499415118394154</v>
+        <v>0.01304816306653667</v>
       </c>
       <c r="J16">
-        <v>0.713522004646336</v>
+        <v>0.612653274730377</v>
       </c>
       <c r="K16">
-        <v>1.065856707323107</v>
+        <v>0.8603331429134542</v>
       </c>
       <c r="L16">
-        <v>0.08744153693805323</v>
+        <v>0.3458088903215852</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3186612606072146</v>
       </c>
       <c r="N16">
-        <v>0.05359388980457069</v>
+        <v>0.07820546334793033</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06250845818702544</v>
       </c>
       <c r="Q16">
-        <v>4.041020075985784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3.436562785454583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1780852616290147</v>
+        <v>0.1223164357420359</v>
       </c>
       <c r="D17">
-        <v>0.06908724679260558</v>
+        <v>0.0704752298773812</v>
       </c>
       <c r="E17">
-        <v>0.07075459319150212</v>
+        <v>0.0640944292818304</v>
       </c>
       <c r="F17">
-        <v>1.453934206215095</v>
+        <v>1.268809375995446</v>
       </c>
       <c r="G17">
-        <v>1.21772657279368</v>
+        <v>1.042207979006292</v>
       </c>
       <c r="H17">
-        <v>0.1278059087892984</v>
+        <v>0.1269994669671917</v>
       </c>
       <c r="I17">
-        <v>0.01378796559714779</v>
+        <v>0.01215746180342414</v>
       </c>
       <c r="J17">
-        <v>0.71213068709298</v>
+        <v>0.6446742602763891</v>
       </c>
       <c r="K17">
-        <v>1.065367975150608</v>
+        <v>0.866372351644813</v>
       </c>
       <c r="L17">
-        <v>0.09222456722854666</v>
+        <v>0.3531346834957674</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.31499769782247</v>
       </c>
       <c r="N17">
-        <v>0.0586537537724876</v>
+        <v>0.08138521064762649</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.06996498128769701</v>
       </c>
       <c r="Q17">
-        <v>4.022155874054476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>3.447258727287561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1882976804259613</v>
+        <v>0.1264103558661311</v>
       </c>
       <c r="D18">
-        <v>0.0754393261653945</v>
+        <v>0.07696886717256746</v>
       </c>
       <c r="E18">
-        <v>0.08099811195170048</v>
+        <v>0.07303848591721085</v>
       </c>
       <c r="F18">
-        <v>1.518414949998814</v>
+        <v>1.328384834020085</v>
       </c>
       <c r="G18">
-        <v>1.263996026021033</v>
+        <v>1.072293093241939</v>
       </c>
       <c r="H18">
-        <v>0.07486204169620692</v>
+        <v>0.07407643267051611</v>
       </c>
       <c r="I18">
-        <v>0.01335945714829734</v>
+        <v>0.01173530938771705</v>
       </c>
       <c r="J18">
-        <v>0.7364997111896798</v>
+        <v>0.679848098101786</v>
       </c>
       <c r="K18">
-        <v>1.111731155570226</v>
+        <v>0.906406117274976</v>
       </c>
       <c r="L18">
-        <v>0.1063011136550571</v>
+        <v>0.3707708780512746</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3271663943116678</v>
       </c>
       <c r="N18">
-        <v>0.07188485633001207</v>
+        <v>0.09173552605167323</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08793325963519649</v>
       </c>
       <c r="Q18">
-        <v>4.171186593485402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3.584578045508238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2033560885799943</v>
+        <v>0.1329819450391483</v>
       </c>
       <c r="D19">
-        <v>0.08497252638472474</v>
+        <v>0.086876753065944</v>
       </c>
       <c r="E19">
-        <v>0.09765708416707142</v>
+        <v>0.08779708610475367</v>
       </c>
       <c r="F19">
-        <v>1.626097013372089</v>
+        <v>1.422256578902918</v>
       </c>
       <c r="G19">
-        <v>1.346097623380928</v>
+        <v>1.138576024725523</v>
       </c>
       <c r="H19">
-        <v>0.03020785671832016</v>
+        <v>0.02932379952570585</v>
       </c>
       <c r="I19">
-        <v>0.0140408294887262</v>
+        <v>0.01230058983550997</v>
       </c>
       <c r="J19">
-        <v>0.7776905366359586</v>
+        <v>0.7189187524116107</v>
       </c>
       <c r="K19">
-        <v>1.187967900443084</v>
+        <v>0.9677326544287581</v>
       </c>
       <c r="L19">
-        <v>0.1313582203493588</v>
+        <v>0.3942833262884875</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3499129547381372</v>
       </c>
       <c r="N19">
-        <v>0.09629545378104609</v>
+        <v>0.1115069182709654</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1189513688280996</v>
       </c>
       <c r="Q19">
-        <v>4.431438675870083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3.805876884979455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2347491709547285</v>
+        <v>0.1477342309895917</v>
       </c>
       <c r="D20">
-        <v>0.103024026177863</v>
+        <v>0.1060355323280859</v>
       </c>
       <c r="E20">
-        <v>0.1318457697335091</v>
+        <v>0.1184030544566887</v>
       </c>
       <c r="F20">
-        <v>1.861816036586163</v>
+        <v>1.618222221399037</v>
       </c>
       <c r="G20">
-        <v>1.536046305992244</v>
+        <v>1.312581539141831</v>
       </c>
       <c r="H20">
-        <v>0.006747490723430616</v>
+        <v>0.005371796558484299</v>
       </c>
       <c r="I20">
-        <v>0.01722449248777469</v>
+        <v>0.01474413993015933</v>
       </c>
       <c r="J20">
-        <v>0.8696433961202388</v>
+        <v>0.772146571093316</v>
       </c>
       <c r="K20">
-        <v>1.356346154018979</v>
+        <v>1.095796476190728</v>
       </c>
       <c r="L20">
-        <v>0.1863941515345147</v>
+        <v>0.4358067566137294</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4061030320797627</v>
       </c>
       <c r="N20">
-        <v>0.1499797108932057</v>
+        <v>0.1566417663669384</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.1842750271601901</v>
       </c>
       <c r="Q20">
-        <v>5.026704847955273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>4.282997457969429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2553447184610889</v>
+        <v>0.1592769776494904</v>
       </c>
       <c r="D21">
-        <v>0.1115027288515407</v>
+        <v>0.1176957742701745</v>
       </c>
       <c r="E21">
-        <v>0.1451577940255433</v>
+        <v>0.1302716350030479</v>
       </c>
       <c r="F21">
-        <v>2.065945902253119</v>
+        <v>1.7506274889585</v>
       </c>
       <c r="G21">
-        <v>1.718481270424519</v>
+        <v>1.589164662146828</v>
       </c>
       <c r="H21">
-        <v>0.01044894972315527</v>
+        <v>0.008154529636906604</v>
       </c>
       <c r="I21">
-        <v>0.02327416415495698</v>
+        <v>0.01916914820366244</v>
       </c>
       <c r="J21">
-        <v>0.9534282729862582</v>
+        <v>0.6682165375997755</v>
       </c>
       <c r="K21">
-        <v>1.503618875506803</v>
+        <v>1.180491481597613</v>
       </c>
       <c r="L21">
-        <v>0.2070651477896206</v>
+        <v>0.4484292291956535</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4606417283502395</v>
       </c>
       <c r="N21">
-        <v>0.1669989718780016</v>
+        <v>0.1717972609341416</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2058320312847002</v>
       </c>
       <c r="Q21">
-        <v>5.589150084821426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4.616690724137186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2688857238893263</v>
+        <v>0.1671993674853454</v>
       </c>
       <c r="D22">
-        <v>0.1162180273264255</v>
+        <v>0.124739532369837</v>
       </c>
       <c r="E22">
-        <v>0.1523636381021483</v>
+        <v>0.1367428094455185</v>
       </c>
       <c r="F22">
-        <v>2.194948432541437</v>
+        <v>1.830464523760625</v>
       </c>
       <c r="G22">
-        <v>1.835073650442894</v>
+        <v>1.781619833237869</v>
       </c>
       <c r="H22">
-        <v>0.01322148166256792</v>
+        <v>0.01023599349302073</v>
       </c>
       <c r="I22">
-        <v>0.02735849745276386</v>
+        <v>0.02198613522383397</v>
       </c>
       <c r="J22">
-        <v>1.006935358609411</v>
+        <v>0.5968115255826376</v>
       </c>
       <c r="K22">
-        <v>1.597913422393162</v>
+        <v>1.232399702067198</v>
       </c>
       <c r="L22">
-        <v>0.2181858408324899</v>
+        <v>0.4552440455365385</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4955899066617135</v>
       </c>
       <c r="N22">
-        <v>0.1748907153040307</v>
+        <v>0.1796219725107235</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2161050890498899</v>
       </c>
       <c r="Q22">
-        <v>5.94851615551346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4.818567646772237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2630839061053223</v>
+        <v>0.1635433468912666</v>
       </c>
       <c r="D23">
-        <v>0.1136477091197179</v>
+        <v>0.1205859594280554</v>
       </c>
       <c r="E23">
-        <v>0.1486999139292209</v>
+        <v>0.1333669236412902</v>
       </c>
       <c r="F23">
-        <v>2.129505602948299</v>
+        <v>1.794942699109953</v>
       </c>
       <c r="G23">
-        <v>1.776166515706109</v>
+        <v>1.66667706960817</v>
       </c>
       <c r="H23">
-        <v>0.01173125031897307</v>
+        <v>0.009133079584598927</v>
       </c>
       <c r="I23">
-        <v>0.02493601427942327</v>
+        <v>0.02020203074368077</v>
       </c>
       <c r="J23">
-        <v>0.980015587191815</v>
+        <v>0.6527517377192282</v>
       </c>
       <c r="K23">
-        <v>1.5513599435738</v>
+        <v>1.210733674274465</v>
       </c>
       <c r="L23">
-        <v>0.2126800899262946</v>
+        <v>0.4537387378342075</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4793278758042234</v>
       </c>
       <c r="N23">
-        <v>0.1702365245754436</v>
+        <v>0.1758884765165192</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2101575508453379</v>
       </c>
       <c r="Q23">
-        <v>5.767184037509367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4.73350040302887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2386511798340791</v>
+        <v>0.1497395403782278</v>
       </c>
       <c r="D24">
-        <v>0.104086580947083</v>
+        <v>0.1071191911917566</v>
       </c>
       <c r="E24">
-        <v>0.1345395827589364</v>
+        <v>0.120853924617272</v>
       </c>
       <c r="F24">
-        <v>1.877704957647666</v>
+        <v>1.632530278087756</v>
       </c>
       <c r="G24">
-        <v>1.549002321509107</v>
+        <v>1.322826218030144</v>
       </c>
       <c r="H24">
-        <v>0.006774258701521485</v>
+        <v>0.005376749049268326</v>
       </c>
       <c r="I24">
-        <v>0.01691696015855104</v>
+        <v>0.01431062218778489</v>
       </c>
       <c r="J24">
-        <v>0.8761383543373711</v>
+        <v>0.7792869333130739</v>
       </c>
       <c r="K24">
-        <v>1.369659322770772</v>
+        <v>1.107098735192722</v>
       </c>
       <c r="L24">
-        <v>0.1911069897294695</v>
+        <v>0.4402044653644026</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4102282050813457</v>
       </c>
       <c r="N24">
-        <v>0.1534561631362692</v>
+        <v>0.1606597257627058</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.1884006279302568</v>
       </c>
       <c r="Q24">
-        <v>5.067761981952401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>4.319536891342295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2119946336223251</v>
+        <v>0.1368713777543178</v>
       </c>
       <c r="D25">
-        <v>0.0939445987235743</v>
+        <v>0.09630216655699542</v>
       </c>
       <c r="E25">
-        <v>0.1192673595953195</v>
+        <v>0.1082079952664863</v>
       </c>
       <c r="F25">
-        <v>1.609336974735939</v>
+        <v>1.415318489236085</v>
       </c>
       <c r="G25">
-        <v>1.306654636197237</v>
+        <v>1.112580528409097</v>
       </c>
       <c r="H25">
-        <v>0.002812089357899339</v>
+        <v>0.002235023981470796</v>
       </c>
       <c r="I25">
-        <v>0.009887784357944795</v>
+        <v>0.008831903135362751</v>
       </c>
       <c r="J25">
-        <v>0.7656214110820656</v>
+        <v>0.7074091278081482</v>
       </c>
       <c r="K25">
-        <v>1.175214312730105</v>
+        <v>0.9651732315353527</v>
       </c>
       <c r="L25">
-        <v>0.1677536578009367</v>
+        <v>0.4135474881078878</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3270041793441578</v>
       </c>
       <c r="N25">
-        <v>0.1355789300985677</v>
+        <v>0.1431879162554708</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1647935285202422</v>
       </c>
       <c r="Q25">
-        <v>4.322181902306852</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3.731322529668319</v>
       </c>
     </row>
   </sheetData>
